--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3823052.755727048</v>
+        <v>-3823754.891411423</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>134.4218147005629</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="H11" t="n">
-        <v>31.32552467000439</v>
+        <v>155.5045423845798</v>
       </c>
       <c r="I11" t="n">
-        <v>11.74649515820818</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>18.50923699120961</v>
+        <v>18.50923699120967</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>42.18246213585448</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.67262509955668</v>
       </c>
       <c r="V11" t="n">
         <v>149.1209360183646</v>
       </c>
       <c r="W11" t="n">
-        <v>170.6096462656427</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>191.0997782266987</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>79.79315073593983</v>
+        <v>17.39111568582745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.83975863332243</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>77.10067640492271</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T12" t="n">
-        <v>20.40912598010583</v>
+        <v>20.40912598010589</v>
       </c>
       <c r="U12" t="n">
-        <v>47.29170902643607</v>
+        <v>47.29170902643612</v>
       </c>
       <c r="V12" t="n">
-        <v>54.16926469765494</v>
+        <v>54.169264697655</v>
       </c>
       <c r="W12" t="n">
-        <v>73.06366070914927</v>
+        <v>73.06366070914933</v>
       </c>
       <c r="X12" t="n">
-        <v>27.14166275170714</v>
+        <v>198.698839673052</v>
       </c>
       <c r="Y12" t="n">
-        <v>27.05137332553403</v>
+        <v>27.05137332553409</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.200657730166967</v>
+        <v>1.200657730167023</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>41.30999778875461</v>
+        <v>41.30999778875466</v>
       </c>
       <c r="T13" t="n">
-        <v>48.31511175255173</v>
+        <v>48.31511175255179</v>
       </c>
       <c r="U13" t="n">
-        <v>107.6749517316487</v>
+        <v>107.6749517316488</v>
       </c>
       <c r="V13" t="n">
-        <v>73.50632087205767</v>
+        <v>73.50632087205773</v>
       </c>
       <c r="W13" t="n">
         <v>107.8916758848207</v>
       </c>
       <c r="X13" t="n">
-        <v>47.07833293726682</v>
+        <v>47.07833293726688</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.95333090032446</v>
+        <v>39.95333090032452</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>175.0139379840241</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>11.74649515820818</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>18.50923699120961</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>31.32552467000397</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>149.1209360183646</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>170.6096462656427</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>191.0997782266987</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>99.93321863540149</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.83975863332243</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>20.40912598010583</v>
+        <v>198.698839673052</v>
       </c>
       <c r="U15" t="n">
-        <v>47.29170902643607</v>
+        <v>198.698839673052</v>
       </c>
       <c r="V15" t="n">
-        <v>54.16926469765494</v>
+        <v>54.169264697655</v>
       </c>
       <c r="W15" t="n">
-        <v>73.06366070914927</v>
+        <v>93.70301053466186</v>
       </c>
       <c r="X15" t="n">
-        <v>27.14166275170714</v>
+        <v>27.1416627517072</v>
       </c>
       <c r="Y15" t="n">
-        <v>27.05137332553403</v>
+        <v>198.698839673052</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.200657730166967</v>
+        <v>1.200657730167023</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>41.30999778875461</v>
+        <v>41.30999778875466</v>
       </c>
       <c r="T16" t="n">
-        <v>48.31511175255173</v>
+        <v>48.31511175255179</v>
       </c>
       <c r="U16" t="n">
-        <v>107.6749517316487</v>
+        <v>107.6749517316488</v>
       </c>
       <c r="V16" t="n">
-        <v>73.50632087205767</v>
+        <v>73.50632087205773</v>
       </c>
       <c r="W16" t="n">
         <v>107.8916758848207</v>
       </c>
       <c r="X16" t="n">
-        <v>47.07833293726682</v>
+        <v>47.07833293726688</v>
       </c>
       <c r="Y16" t="n">
-        <v>39.95333090032446</v>
+        <v>39.95333090032452</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>106.6701106705158</v>
       </c>
       <c r="G17" t="n">
-        <v>114.5754854875701</v>
+        <v>114.5754854875702</v>
       </c>
       <c r="H17" t="n">
-        <v>33.92992976515447</v>
+        <v>33.9299297651545</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.83975863332243</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>12.38102861476194</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="V18" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>198.6988396730519</v>
+        <v>121.3997795088059</v>
       </c>
       <c r="X18" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.58072672426806</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>35.23026070930629</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>101.8109874335743</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.52790659228498</v>
+        <v>82.52790659228565</v>
       </c>
       <c r="C20" t="n">
-        <v>65.06695669981195</v>
+        <v>65.06695669981201</v>
       </c>
       <c r="D20" t="n">
-        <v>54.47710654948736</v>
+        <v>54.47710654948742</v>
       </c>
       <c r="E20" t="n">
-        <v>81.72443500106691</v>
+        <v>81.72443500106624</v>
       </c>
       <c r="F20" t="n">
-        <v>106.6701106705158</v>
+        <v>106.6701106705159</v>
       </c>
       <c r="G20" t="n">
-        <v>114.5754854875701</v>
+        <v>114.5754854875702</v>
       </c>
       <c r="H20" t="n">
-        <v>33.9299297651545</v>
+        <v>33.92992976515455</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>27.54632339893931</v>
+        <v>27.54632339893936</v>
       </c>
       <c r="W20" t="n">
-        <v>49.03503364621741</v>
+        <v>49.03503364621747</v>
       </c>
       <c r="X20" t="n">
-        <v>69.52516560727344</v>
+        <v>69.52516560727349</v>
       </c>
       <c r="Y20" t="n">
-        <v>86.03200358485799</v>
+        <v>86.03200358485805</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>27.56887241938539</v>
       </c>
       <c r="S21" t="n">
-        <v>95.22078724808432</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="U21" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.58072672426806</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.2630060079984</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.23026070930629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.52790659228498</v>
+        <v>82.52790659228504</v>
       </c>
       <c r="C23" t="n">
-        <v>65.06695669981195</v>
+        <v>65.06695669981201</v>
       </c>
       <c r="D23" t="n">
-        <v>54.47710654948736</v>
+        <v>54.47710654948742</v>
       </c>
       <c r="E23" t="n">
-        <v>81.72443500106618</v>
+        <v>81.72443500106624</v>
       </c>
       <c r="F23" t="n">
-        <v>106.6701106705158</v>
+        <v>106.6701106705159</v>
       </c>
       <c r="G23" t="n">
-        <v>114.5754854875701</v>
+        <v>114.5754854875702</v>
       </c>
       <c r="H23" t="n">
-        <v>33.92992976515447</v>
+        <v>33.92992976515455</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>27.54632339893931</v>
+        <v>27.54632339893936</v>
       </c>
       <c r="W23" t="n">
-        <v>49.03503364621741</v>
+        <v>49.03503364621747</v>
       </c>
       <c r="X23" t="n">
-        <v>69.52516560727344</v>
+        <v>69.52516560727349</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.03200358485799</v>
+        <v>86.03200358485805</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.83975863332243</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>92.17417935070175</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>198.6988396730519</v>
+        <v>27.56887241938539</v>
       </c>
       <c r="W24" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>101.8109874335743</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.58072672426806</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>35.23026070930629</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.731751440624</v>
+        <v>233.7317514406241</v>
       </c>
       <c r="C26" t="n">
-        <v>216.270801548151</v>
+        <v>216.2708015481511</v>
       </c>
       <c r="D26" t="n">
-        <v>205.6809513978264</v>
+        <v>205.6809513978265</v>
       </c>
       <c r="E26" t="n">
-        <v>232.9282798494052</v>
+        <v>232.9282798494053</v>
       </c>
       <c r="F26" t="n">
-        <v>257.8739555188549</v>
+        <v>257.873955518855</v>
       </c>
       <c r="G26" t="n">
         <v>265.7793303359093</v>
       </c>
       <c r="H26" t="n">
-        <v>185.1337746134935</v>
+        <v>185.1337746134936</v>
       </c>
       <c r="I26" t="n">
-        <v>41.37572738712198</v>
+        <v>41.37572738712205</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>48.1384692201234</v>
+        <v>48.13846922012349</v>
       </c>
       <c r="T26" t="n">
-        <v>71.81169436476821</v>
+        <v>71.8116943647683</v>
       </c>
       <c r="U26" t="n">
-        <v>102.3018573284704</v>
+        <v>102.3018573284705</v>
       </c>
       <c r="V26" t="n">
-        <v>178.7501682472784</v>
+        <v>178.7501682472785</v>
       </c>
       <c r="W26" t="n">
-        <v>200.2388784945565</v>
+        <v>200.2388784945566</v>
       </c>
       <c r="X26" t="n">
-        <v>220.7290104556125</v>
+        <v>220.7290104556126</v>
       </c>
       <c r="Y26" t="n">
-        <v>237.235848433197</v>
+        <v>237.2358484331971</v>
       </c>
     </row>
     <row r="27">
@@ -2640,19 +2640,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>8.642990232544491</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>130.8926755110262</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>82.83975863332243</v>
       </c>
       <c r="S27" t="n">
-        <v>27.78581336231534</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T27" t="n">
-        <v>50.03835820901962</v>
+        <v>50.03835820901971</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9230314782064</v>
+        <v>76.92094125534994</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>102.6928929380632</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>56.68060555444791</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.82988995908076</v>
+        <v>30.82988995908084</v>
       </c>
       <c r="C28" t="n">
-        <v>18.2447308757713</v>
+        <v>18.24473087577138</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.75504429595214</v>
+        <v>18.75504429595222</v>
       </c>
       <c r="H28" t="n">
-        <v>11.14598907387595</v>
+        <v>11.14598907387604</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.77678681877386</v>
+        <v>17.77678681877394</v>
       </c>
       <c r="S28" t="n">
-        <v>70.93923001766839</v>
+        <v>70.93923001766848</v>
       </c>
       <c r="T28" t="n">
-        <v>77.94434398146552</v>
+        <v>77.94434398146561</v>
       </c>
       <c r="U28" t="n">
-        <v>137.3041839605625</v>
+        <v>137.3041839605626</v>
       </c>
       <c r="V28" t="n">
         <v>103.1355531009715</v>
@@ -2776,10 +2776,10 @@
         <v>137.5209081137345</v>
       </c>
       <c r="X28" t="n">
-        <v>76.70756516618061</v>
+        <v>76.7075651661807</v>
       </c>
       <c r="Y28" t="n">
-        <v>69.58256312923825</v>
+        <v>69.58256312923834</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.731751440624</v>
+        <v>233.7317514406241</v>
       </c>
       <c r="C29" t="n">
         <v>216.270801548151</v>
@@ -2798,7 +2798,7 @@
         <v>205.6809513978264</v>
       </c>
       <c r="E29" t="n">
-        <v>232.9282798494052</v>
+        <v>232.9282798494053</v>
       </c>
       <c r="F29" t="n">
         <v>257.8739555188549</v>
@@ -2807,10 +2807,10 @@
         <v>265.7793303359093</v>
       </c>
       <c r="H29" t="n">
-        <v>185.1337746134935</v>
+        <v>185.1337746134936</v>
       </c>
       <c r="I29" t="n">
-        <v>41.37572738712197</v>
+        <v>41.37572738712201</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>48.1384692201234</v>
+        <v>48.13846922012343</v>
       </c>
       <c r="T29" t="n">
-        <v>71.81169436476821</v>
+        <v>71.81169436476824</v>
       </c>
       <c r="U29" t="n">
         <v>102.3018573284704</v>
@@ -2858,7 +2858,7 @@
         <v>220.7290104556125</v>
       </c>
       <c r="Y29" t="n">
-        <v>237.235848433197</v>
+        <v>237.2358484331971</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17.5310934270108</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2877,13 +2877,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>8.642990232544435</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>14.2185971590918</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>82.83975863332243</v>
       </c>
       <c r="S30" t="n">
-        <v>17.50009403269624</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T30" t="n">
-        <v>50.03835820901962</v>
+        <v>64.25695536811142</v>
       </c>
       <c r="U30" t="n">
         <v>225.9230314782064</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>83.79849692656876</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.82988995908076</v>
+        <v>30.82988995908079</v>
       </c>
       <c r="C31" t="n">
-        <v>18.2447308757713</v>
+        <v>18.24473087577132</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.75504429595214</v>
+        <v>18.75504429595217</v>
       </c>
       <c r="H31" t="n">
-        <v>11.14598907387595</v>
+        <v>11.14598907387598</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.77678681877386</v>
+        <v>17.77678681877389</v>
       </c>
       <c r="S31" t="n">
-        <v>70.93923001766839</v>
+        <v>70.93923001766842</v>
       </c>
       <c r="T31" t="n">
-        <v>77.94434398146552</v>
+        <v>77.94434398146555</v>
       </c>
       <c r="U31" t="n">
-        <v>137.3041839605625</v>
+        <v>137.3041839605626</v>
       </c>
       <c r="V31" t="n">
         <v>103.1355531009715</v>
@@ -3013,10 +3013,10 @@
         <v>137.5209081137345</v>
       </c>
       <c r="X31" t="n">
-        <v>76.70756516618061</v>
+        <v>76.70756516618064</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.58256312923825</v>
+        <v>69.58256312923828</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.731751440624</v>
+        <v>233.7317514406241</v>
       </c>
       <c r="C32" t="n">
         <v>216.270801548151</v>
@@ -3035,19 +3035,19 @@
         <v>205.6809513978264</v>
       </c>
       <c r="E32" t="n">
-        <v>232.9282798494052</v>
+        <v>232.9282798494053</v>
       </c>
       <c r="F32" t="n">
         <v>257.8739555188549</v>
       </c>
       <c r="G32" t="n">
-        <v>265.7793303359092</v>
+        <v>265.7793303359093</v>
       </c>
       <c r="H32" t="n">
         <v>185.1337746134936</v>
       </c>
       <c r="I32" t="n">
-        <v>41.37572738712197</v>
+        <v>41.375727387122</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.1384692201234</v>
+        <v>48.13846922012343</v>
       </c>
       <c r="T32" t="n">
-        <v>71.81169436476821</v>
+        <v>71.81169436476824</v>
       </c>
       <c r="U32" t="n">
         <v>102.3018573284704</v>
@@ -3095,7 +3095,7 @@
         <v>220.7290104556125</v>
       </c>
       <c r="Y32" t="n">
-        <v>237.235848433197</v>
+        <v>237.2358484331971</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>17.5310934270108</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>23.70640876545923</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S33" t="n">
-        <v>114.5584498251105</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T33" t="n">
-        <v>50.03835820901962</v>
+        <v>64.25695536811142</v>
       </c>
       <c r="U33" t="n">
         <v>225.9230314782064</v>
@@ -3168,7 +3168,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>102.6928929380631</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.82988995908076</v>
+        <v>30.82988995908079</v>
       </c>
       <c r="C34" t="n">
-        <v>18.2447308757713</v>
+        <v>18.24473087577132</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.75504429595214</v>
+        <v>18.75504429595217</v>
       </c>
       <c r="H34" t="n">
-        <v>11.14598907387595</v>
+        <v>11.14598907387598</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.77678681877386</v>
+        <v>17.77678681877389</v>
       </c>
       <c r="S34" t="n">
-        <v>70.93923001766839</v>
+        <v>70.93923001766842</v>
       </c>
       <c r="T34" t="n">
-        <v>77.94434398146552</v>
+        <v>77.94434398146555</v>
       </c>
       <c r="U34" t="n">
-        <v>137.3041839605625</v>
+        <v>137.3041839605626</v>
       </c>
       <c r="V34" t="n">
         <v>103.1355531009715</v>
@@ -3250,10 +3250,10 @@
         <v>137.5209081137345</v>
       </c>
       <c r="X34" t="n">
-        <v>76.70756516618061</v>
+        <v>76.70756516618064</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.58256312923825</v>
+        <v>69.58256312923828</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>181.3012698717061</v>
+        <v>181.301269871706</v>
       </c>
       <c r="C35" t="n">
         <v>163.840319979233</v>
       </c>
       <c r="D35" t="n">
-        <v>153.2504698289085</v>
+        <v>153.2504698289084</v>
       </c>
       <c r="E35" t="n">
-        <v>180.4977982804873</v>
+        <v>180.4977982804872</v>
       </c>
       <c r="F35" t="n">
         <v>205.4434739499369</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>19.38121279585025</v>
+        <v>19.38121279585022</v>
       </c>
       <c r="U35" t="n">
-        <v>49.87137575955244</v>
+        <v>49.87137575955242</v>
       </c>
       <c r="V35" t="n">
         <v>126.3196866783604</v>
@@ -3348,22 +3348,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>79.79315073593983</v>
+        <v>4.542223512613112</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>93.44664753073461</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.50874844875043</v>
+        <v>18.5087484487504</v>
       </c>
       <c r="T37" t="n">
-        <v>25.51386241254755</v>
+        <v>25.51386241254752</v>
       </c>
       <c r="U37" t="n">
-        <v>84.87370239164456</v>
+        <v>84.87370239164453</v>
       </c>
       <c r="V37" t="n">
-        <v>50.70507153205349</v>
+        <v>50.70507153205347</v>
       </c>
       <c r="W37" t="n">
-        <v>85.09042654481649</v>
+        <v>85.09042654481647</v>
       </c>
       <c r="X37" t="n">
-        <v>24.27708359726265</v>
+        <v>24.27708359726262</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.15208156032028</v>
+        <v>17.15208156032025</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>181.3012698717061</v>
+        <v>181.301269871706</v>
       </c>
       <c r="C38" t="n">
         <v>163.840319979233</v>
       </c>
       <c r="D38" t="n">
-        <v>153.2504698289085</v>
+        <v>153.2504698289084</v>
       </c>
       <c r="E38" t="n">
-        <v>180.4977982804873</v>
+        <v>180.4977982804872</v>
       </c>
       <c r="F38" t="n">
         <v>205.4434739499369</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>19.38121279585025</v>
+        <v>19.38121279585022</v>
       </c>
       <c r="U38" t="n">
-        <v>49.87137575955244</v>
+        <v>49.87137575955242</v>
       </c>
       <c r="V38" t="n">
         <v>126.3196866783604</v>
@@ -3582,25 +3582,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,19 +3630,19 @@
         <v>82.83975863332243</v>
       </c>
       <c r="S39" t="n">
-        <v>0.406874006650089</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9230314782064</v>
+        <v>175.2810531410721</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>50.26241136914507</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.50874844875043</v>
+        <v>18.5087484487504</v>
       </c>
       <c r="T40" t="n">
-        <v>25.51386241254755</v>
+        <v>25.51386241254752</v>
       </c>
       <c r="U40" t="n">
-        <v>84.87370239164456</v>
+        <v>84.87370239164453</v>
       </c>
       <c r="V40" t="n">
-        <v>50.70507153205349</v>
+        <v>50.70507153205347</v>
       </c>
       <c r="W40" t="n">
-        <v>85.09042654481649</v>
+        <v>85.09042654481647</v>
       </c>
       <c r="X40" t="n">
-        <v>24.27708359726265</v>
+        <v>24.27708359726262</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.15208156032028</v>
+        <v>17.15208156032025</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3794,7 @@
         <v>19.38121279585022</v>
       </c>
       <c r="U41" t="n">
-        <v>49.87137575955242</v>
+        <v>49.87137575955241</v>
       </c>
       <c r="V41" t="n">
         <v>126.3196866783604</v>
@@ -3822,22 +3822,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>27.07740684979025</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.5415757500918</v>
       </c>
       <c r="I42" t="n">
-        <v>79.79315073593985</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.83975863332245</v>
+        <v>51.12235445456585</v>
       </c>
       <c r="S42" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -4053,28 +4053,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>53.8990746933443</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>79.79315073593985</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.83975863332245</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U45" t="n">
-        <v>137.3688221890349</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59.40299790941211</v>
+        <v>373.6771011714519</v>
       </c>
       <c r="C11" t="n">
-        <v>59.40299790941211</v>
+        <v>373.6771011714519</v>
       </c>
       <c r="D11" t="n">
-        <v>59.40299790941211</v>
+        <v>373.6771011714519</v>
       </c>
       <c r="E11" t="n">
-        <v>59.40299790941211</v>
+        <v>373.6771011714519</v>
       </c>
       <c r="F11" t="n">
-        <v>59.40299790941211</v>
+        <v>373.6771011714519</v>
       </c>
       <c r="G11" t="n">
-        <v>59.40299790941211</v>
+        <v>172.9712025118036</v>
       </c>
       <c r="H11" t="n">
-        <v>27.76105379829686</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I11" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J11" t="n">
-        <v>15.89590717384415</v>
+        <v>47.86977448817006</v>
       </c>
       <c r="K11" t="n">
-        <v>184.5612501556401</v>
+        <v>216.535117469966</v>
       </c>
       <c r="L11" t="n">
-        <v>381.2731014319615</v>
+        <v>355.5290455545604</v>
       </c>
       <c r="M11" t="n">
-        <v>552.2408968308816</v>
+        <v>355.5290455545604</v>
       </c>
       <c r="N11" t="n">
-        <v>552.2408968308816</v>
+        <v>552.2408968308819</v>
       </c>
       <c r="O11" t="n">
-        <v>748.9527481072031</v>
+        <v>748.9527481072033</v>
       </c>
       <c r="P11" t="n">
-        <v>748.9527481072031</v>
+        <v>748.9527481072033</v>
       </c>
       <c r="Q11" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="R11" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="S11" t="n">
-        <v>776.0991597111878</v>
+        <v>776.099159711188</v>
       </c>
       <c r="T11" t="n">
-        <v>776.0991597111878</v>
+        <v>733.4906120992138</v>
       </c>
       <c r="U11" t="n">
-        <v>776.0991597111878</v>
+        <v>660.0839200794595</v>
       </c>
       <c r="V11" t="n">
-        <v>625.4719516118296</v>
+        <v>509.4567119801013</v>
       </c>
       <c r="W11" t="n">
-        <v>453.1389755859279</v>
+        <v>509.4567119801013</v>
       </c>
       <c r="X11" t="n">
-        <v>260.1088965690605</v>
+        <v>509.4567119801013</v>
       </c>
       <c r="Y11" t="n">
-        <v>59.40299790941211</v>
+        <v>509.4567119801013</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>381.5961349257102</v>
+        <v>33.46269069488199</v>
       </c>
       <c r="C12" t="n">
-        <v>207.1431056445832</v>
+        <v>33.46269069488199</v>
       </c>
       <c r="D12" t="n">
-        <v>207.1431056445832</v>
+        <v>33.46269069488199</v>
       </c>
       <c r="E12" t="n">
-        <v>207.1431056445832</v>
+        <v>33.46269069488199</v>
       </c>
       <c r="F12" t="n">
-        <v>207.1431056445832</v>
+        <v>33.46269069488199</v>
       </c>
       <c r="G12" t="n">
-        <v>207.1431056445832</v>
+        <v>33.46269069488199</v>
       </c>
       <c r="H12" t="n">
-        <v>96.49504933135914</v>
+        <v>33.46269069488199</v>
       </c>
       <c r="I12" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J12" t="n">
-        <v>15.89590717384415</v>
+        <v>41.24594382033392</v>
       </c>
       <c r="K12" t="n">
-        <v>185.844000611936</v>
+        <v>211.1940372584257</v>
       </c>
       <c r="L12" t="n">
-        <v>185.844000611936</v>
+        <v>211.1940372584257</v>
       </c>
       <c r="M12" t="n">
-        <v>382.5558518882574</v>
+        <v>407.9058885347472</v>
       </c>
       <c r="N12" t="n">
-        <v>493.4399366663909</v>
+        <v>493.4399366663911</v>
       </c>
       <c r="O12" t="n">
-        <v>690.1517879427123</v>
+        <v>493.4399366663911</v>
       </c>
       <c r="P12" t="n">
-        <v>690.1517879427123</v>
+        <v>690.1517879427125</v>
       </c>
       <c r="Q12" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="R12" t="n">
-        <v>711.1188348201648</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="S12" t="n">
-        <v>633.2393637040813</v>
+        <v>626.6113341916495</v>
       </c>
       <c r="T12" t="n">
-        <v>612.6240849362975</v>
+        <v>605.9960554238658</v>
       </c>
       <c r="U12" t="n">
-        <v>564.8546818792914</v>
+        <v>558.2266523668595</v>
       </c>
       <c r="V12" t="n">
-        <v>510.1382528917612</v>
+        <v>503.5102233793292</v>
       </c>
       <c r="W12" t="n">
-        <v>436.336575407772</v>
+        <v>429.70854589534</v>
       </c>
       <c r="X12" t="n">
-        <v>408.9207544464517</v>
+        <v>229.0026472356915</v>
       </c>
       <c r="Y12" t="n">
-        <v>381.5961349257102</v>
+        <v>201.67802771495</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="C13" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="D13" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="E13" t="n">
-        <v>15.89590717384415</v>
+        <v>44.34727680702998</v>
       </c>
       <c r="F13" t="n">
-        <v>15.89590717384415</v>
+        <v>44.34727680702998</v>
       </c>
       <c r="G13" t="n">
-        <v>15.89590717384415</v>
+        <v>44.34727680702998</v>
       </c>
       <c r="H13" t="n">
-        <v>15.89590717384415</v>
+        <v>44.34727680702998</v>
       </c>
       <c r="I13" t="n">
-        <v>15.89590717384415</v>
+        <v>44.34727680702998</v>
       </c>
       <c r="J13" t="n">
-        <v>116.6828299472188</v>
+        <v>44.34727680702998</v>
       </c>
       <c r="K13" t="n">
-        <v>121.5328664961471</v>
+        <v>49.19731335595826</v>
       </c>
       <c r="L13" t="n">
-        <v>183.2656780725969</v>
+        <v>110.930124932408</v>
       </c>
       <c r="M13" t="n">
-        <v>258.7433953955962</v>
+        <v>186.4078422554073</v>
       </c>
       <c r="N13" t="n">
-        <v>337.8610377235008</v>
+        <v>265.525484583312</v>
       </c>
       <c r="O13" t="n">
-        <v>394.9226904603153</v>
+        <v>462.2373358596334</v>
       </c>
       <c r="P13" t="n">
-        <v>420.2281098529019</v>
+        <v>487.5427552522201</v>
       </c>
       <c r="Q13" t="n">
-        <v>487.5427552522196</v>
+        <v>487.5427552522201</v>
       </c>
       <c r="R13" t="n">
-        <v>487.5427552522196</v>
+        <v>487.5427552522201</v>
       </c>
       <c r="S13" t="n">
-        <v>445.8154847585281</v>
+        <v>445.8154847585285</v>
       </c>
       <c r="T13" t="n">
-        <v>397.0123415741324</v>
+        <v>397.0123415741327</v>
       </c>
       <c r="U13" t="n">
-        <v>288.2497640674165</v>
+        <v>288.2497640674168</v>
       </c>
       <c r="V13" t="n">
-        <v>214.0009551057421</v>
+        <v>214.0009551057423</v>
       </c>
       <c r="W13" t="n">
-        <v>105.0194643129939</v>
+        <v>105.0194643129941</v>
       </c>
       <c r="X13" t="n">
-        <v>57.46559265918903</v>
+        <v>57.46559265918916</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.10869275987139</v>
+        <v>17.10869275987146</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.76105379829701</v>
+        <v>594.0894600325594</v>
       </c>
       <c r="C14" t="n">
-        <v>27.76105379829701</v>
+        <v>417.307704493141</v>
       </c>
       <c r="D14" t="n">
-        <v>27.76105379829701</v>
+        <v>417.307704493141</v>
       </c>
       <c r="E14" t="n">
-        <v>27.76105379829701</v>
+        <v>216.6018058334926</v>
       </c>
       <c r="F14" t="n">
-        <v>27.76105379829701</v>
+        <v>216.6018058334926</v>
       </c>
       <c r="G14" t="n">
-        <v>27.76105379829701</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="H14" t="n">
-        <v>27.76105379829701</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I14" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J14" t="n">
-        <v>47.86977448817005</v>
+        <v>47.86977448817006</v>
       </c>
       <c r="K14" t="n">
         <v>216.535117469966</v>
       </c>
       <c r="L14" t="n">
-        <v>388.3644718664511</v>
+        <v>216.535117469966</v>
       </c>
       <c r="M14" t="n">
-        <v>388.3644718664511</v>
+        <v>413.2469687462875</v>
       </c>
       <c r="N14" t="n">
-        <v>388.3644718664511</v>
+        <v>413.2469687462875</v>
       </c>
       <c r="O14" t="n">
-        <v>585.0763231427725</v>
+        <v>609.958820022609</v>
       </c>
       <c r="P14" t="n">
-        <v>748.9527481072031</v>
+        <v>773.8352449870396</v>
       </c>
       <c r="Q14" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="R14" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="S14" t="n">
-        <v>776.0991597111878</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="T14" t="n">
-        <v>776.0991597111878</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="U14" t="n">
-        <v>744.4572156000727</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="V14" t="n">
-        <v>593.8300075007145</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="W14" t="n">
-        <v>421.4970314748128</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="X14" t="n">
-        <v>228.4669524579454</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.76105379829701</v>
+        <v>794.7953586922079</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>291.2915815412353</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="C15" t="n">
-        <v>116.8385522601083</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="D15" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="E15" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="F15" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="G15" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="H15" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I15" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J15" t="n">
-        <v>15.89590717384415</v>
+        <v>41.24594382033392</v>
       </c>
       <c r="K15" t="n">
-        <v>185.844000611936</v>
+        <v>41.24594382033392</v>
       </c>
       <c r="L15" t="n">
-        <v>382.5558518882574</v>
+        <v>237.9577950966554</v>
       </c>
       <c r="M15" t="n">
-        <v>382.5558518882574</v>
+        <v>434.6696463729768</v>
       </c>
       <c r="N15" t="n">
-        <v>579.2677031645787</v>
+        <v>598.0835074158864</v>
       </c>
       <c r="O15" t="n">
-        <v>598.0835074158863</v>
+        <v>598.0835074158864</v>
       </c>
       <c r="P15" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="Q15" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="R15" t="n">
-        <v>711.1188348201648</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="S15" t="n">
-        <v>542.9348103196064</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="T15" t="n">
-        <v>522.3195315518227</v>
+        <v>594.0894600325594</v>
       </c>
       <c r="U15" t="n">
-        <v>474.5501284948166</v>
+        <v>393.3835613729109</v>
       </c>
       <c r="V15" t="n">
-        <v>419.8336995072863</v>
+        <v>338.6671323853806</v>
       </c>
       <c r="W15" t="n">
-        <v>346.0320220232971</v>
+        <v>244.017626794813</v>
       </c>
       <c r="X15" t="n">
-        <v>318.6162010619768</v>
+        <v>216.6018058334926</v>
       </c>
       <c r="Y15" t="n">
-        <v>291.2915815412353</v>
+        <v>15.89590717384416</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="C16" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="D16" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="E16" t="n">
-        <v>15.89590717384415</v>
+        <v>47.77129338099325</v>
       </c>
       <c r="F16" t="n">
-        <v>15.89590717384415</v>
+        <v>47.77129338099325</v>
       </c>
       <c r="G16" t="n">
-        <v>15.89590717384415</v>
+        <v>47.77129338099325</v>
       </c>
       <c r="H16" t="n">
-        <v>15.89590717384415</v>
+        <v>47.77129338099325</v>
       </c>
       <c r="I16" t="n">
-        <v>15.89590717384415</v>
+        <v>47.77129338099325</v>
       </c>
       <c r="J16" t="n">
-        <v>116.6828299472188</v>
+        <v>47.77129338099325</v>
       </c>
       <c r="K16" t="n">
-        <v>121.5328664961471</v>
+        <v>52.62132992992153</v>
       </c>
       <c r="L16" t="n">
-        <v>183.2656780725969</v>
+        <v>114.3541415063713</v>
       </c>
       <c r="M16" t="n">
-        <v>258.7433953955962</v>
+        <v>189.8318588293706</v>
       </c>
       <c r="N16" t="n">
-        <v>337.8610377235008</v>
+        <v>268.9495011572753</v>
       </c>
       <c r="O16" t="n">
-        <v>394.9226904603153</v>
+        <v>326.0111538940897</v>
       </c>
       <c r="P16" t="n">
-        <v>420.2281098529019</v>
+        <v>487.5427552522201</v>
       </c>
       <c r="Q16" t="n">
-        <v>487.5427552522196</v>
+        <v>487.5427552522201</v>
       </c>
       <c r="R16" t="n">
-        <v>487.5427552522196</v>
+        <v>487.5427552522201</v>
       </c>
       <c r="S16" t="n">
-        <v>445.8154847585281</v>
+        <v>445.8154847585285</v>
       </c>
       <c r="T16" t="n">
-        <v>397.0123415741324</v>
+        <v>397.0123415741327</v>
       </c>
       <c r="U16" t="n">
-        <v>288.2497640674165</v>
+        <v>288.2497640674168</v>
       </c>
       <c r="V16" t="n">
-        <v>214.0009551057421</v>
+        <v>214.0009551057423</v>
       </c>
       <c r="W16" t="n">
-        <v>105.0194643129939</v>
+        <v>105.0194643129941</v>
       </c>
       <c r="X16" t="n">
-        <v>57.46559265918903</v>
+        <v>57.46559265918916</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.10869275987139</v>
+        <v>17.10869275987146</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>476.950477046174</v>
+        <v>476.9504770461741</v>
       </c>
       <c r="C17" t="n">
-        <v>411.2262783594952</v>
+        <v>411.2262783594953</v>
       </c>
       <c r="D17" t="n">
-        <v>356.1988980064776</v>
+        <v>356.1988980064777</v>
       </c>
       <c r="E17" t="n">
-        <v>273.6489636619663</v>
+        <v>273.6489636619664</v>
       </c>
       <c r="F17" t="n">
         <v>165.9013771260917</v>
       </c>
       <c r="G17" t="n">
-        <v>50.16856350228301</v>
+        <v>50.16856350228305</v>
       </c>
       <c r="H17" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I17" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J17" t="n">
-        <v>47.86977448817005</v>
+        <v>47.86977448817006</v>
       </c>
       <c r="K17" t="n">
-        <v>216.535117469966</v>
+        <v>47.86977448817006</v>
       </c>
       <c r="L17" t="n">
-        <v>413.2469687462874</v>
+        <v>204.6598048632435</v>
       </c>
       <c r="M17" t="n">
-        <v>434.2070824514556</v>
+        <v>401.3716561395649</v>
       </c>
       <c r="N17" t="n">
-        <v>434.2070824514556</v>
+        <v>598.0835074158864</v>
       </c>
       <c r="O17" t="n">
-        <v>630.918933727777</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="P17" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="Q17" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="R17" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="S17" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="T17" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="U17" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="V17" t="n">
-        <v>766.9707896023698</v>
+        <v>766.97078960237</v>
       </c>
       <c r="W17" t="n">
-        <v>717.4404525859886</v>
+        <v>717.4404525859889</v>
       </c>
       <c r="X17" t="n">
-        <v>647.2130125786416</v>
+        <v>647.2130125786418</v>
       </c>
       <c r="Y17" t="n">
-        <v>560.3119988565627</v>
+        <v>560.3119988565629</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>96.49504933135914</v>
+        <v>303.2793956241163</v>
       </c>
       <c r="C18" t="n">
-        <v>96.49504933135914</v>
+        <v>303.2793956241163</v>
       </c>
       <c r="D18" t="n">
-        <v>96.49504933135914</v>
+        <v>154.344985962865</v>
       </c>
       <c r="E18" t="n">
-        <v>96.49504933135914</v>
+        <v>154.344985962865</v>
       </c>
       <c r="F18" t="n">
-        <v>96.49504933135914</v>
+        <v>154.344985962865</v>
       </c>
       <c r="G18" t="n">
-        <v>96.49504933135914</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="H18" t="n">
-        <v>96.49504933135914</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I18" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J18" t="n">
-        <v>15.89590717384415</v>
+        <v>41.24594382033392</v>
       </c>
       <c r="K18" t="n">
-        <v>185.844000611936</v>
+        <v>41.24594382033392</v>
       </c>
       <c r="L18" t="n">
-        <v>382.5558518882574</v>
+        <v>237.9577950966554</v>
       </c>
       <c r="M18" t="n">
-        <v>382.5558518882574</v>
+        <v>296.7280853900696</v>
       </c>
       <c r="N18" t="n">
-        <v>579.2677031645787</v>
+        <v>296.7280853900696</v>
       </c>
       <c r="O18" t="n">
-        <v>598.0835074158863</v>
+        <v>493.4399366663911</v>
       </c>
       <c r="P18" t="n">
-        <v>794.7953586922076</v>
+        <v>690.1517879427125</v>
       </c>
       <c r="Q18" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="R18" t="n">
-        <v>711.1188348201648</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="S18" t="n">
-        <v>698.6127453103043</v>
+        <v>626.6113341916495</v>
       </c>
       <c r="T18" t="n">
-        <v>698.6127453103043</v>
+        <v>626.6113341916495</v>
       </c>
       <c r="U18" t="n">
-        <v>698.6127453103043</v>
+        <v>425.905435532001</v>
       </c>
       <c r="V18" t="n">
-        <v>497.9068466506559</v>
+        <v>425.905435532001</v>
       </c>
       <c r="W18" t="n">
-        <v>297.2009479910075</v>
+        <v>303.2793956241163</v>
       </c>
       <c r="X18" t="n">
-        <v>96.49504933135914</v>
+        <v>303.2793956241163</v>
       </c>
       <c r="Y18" t="n">
-        <v>96.49504933135914</v>
+        <v>303.2793956241163</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="C19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="D19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="E19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="F19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="G19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="H19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="K19" t="n">
-        <v>20.74594372277243</v>
+        <v>20.74594372277244</v>
       </c>
       <c r="L19" t="n">
         <v>82.47875529922223</v>
@@ -5692,31 +5692,31 @@
         <v>319.4411870795273</v>
       </c>
       <c r="Q19" t="n">
-        <v>252.1879277620848</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="R19" t="n">
-        <v>252.1879277620848</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="S19" t="n">
-        <v>252.1879277620848</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="T19" t="n">
-        <v>51.48202910243637</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="U19" t="n">
-        <v>15.89590717384415</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="V19" t="n">
-        <v>15.89590717384415</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="W19" t="n">
-        <v>15.89590717384415</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="X19" t="n">
-        <v>15.89590717384415</v>
+        <v>118.7352884198788</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>476.9504770461743</v>
+        <v>476.9504770461734</v>
       </c>
       <c r="C20" t="n">
-        <v>411.2262783594956</v>
+        <v>411.2262783594945</v>
       </c>
       <c r="D20" t="n">
-        <v>356.1988980064782</v>
+        <v>356.1988980064769</v>
       </c>
       <c r="E20" t="n">
-        <v>273.6489636619658</v>
+        <v>273.6489636619655</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9013771260911</v>
+        <v>165.9013771260908</v>
       </c>
       <c r="G20" t="n">
-        <v>50.16856350228304</v>
+        <v>50.16856350228311</v>
       </c>
       <c r="H20" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I20" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J20" t="n">
-        <v>47.86977448817005</v>
+        <v>47.86977448817006</v>
       </c>
       <c r="K20" t="n">
         <v>216.535117469966</v>
       </c>
       <c r="L20" t="n">
-        <v>401.3716561395649</v>
+        <v>216.535117469966</v>
       </c>
       <c r="M20" t="n">
-        <v>598.0835074158863</v>
+        <v>413.2469687462875</v>
       </c>
       <c r="N20" t="n">
-        <v>598.0835074158863</v>
+        <v>434.2070824514558</v>
       </c>
       <c r="O20" t="n">
-        <v>794.7953586922076</v>
+        <v>630.9189337277772</v>
       </c>
       <c r="P20" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="Q20" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="R20" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="S20" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="T20" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="U20" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="V20" t="n">
-        <v>766.9707896023699</v>
+        <v>766.97078960237</v>
       </c>
       <c r="W20" t="n">
-        <v>717.4404525859889</v>
+        <v>717.4404525859887</v>
       </c>
       <c r="X20" t="n">
-        <v>647.213012578642</v>
+        <v>647.2130125786417</v>
       </c>
       <c r="Y20" t="n">
-        <v>560.3119988565632</v>
+        <v>560.3119988565629</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.49504933135914</v>
+        <v>164.8303168350954</v>
       </c>
       <c r="C21" t="n">
-        <v>96.49504933135914</v>
+        <v>164.8303168350954</v>
       </c>
       <c r="D21" t="n">
-        <v>96.49504933135914</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="E21" t="n">
-        <v>96.49504933135914</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="F21" t="n">
-        <v>96.49504933135914</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="G21" t="n">
-        <v>96.49504933135914</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="H21" t="n">
-        <v>96.49504933135914</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I21" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J21" t="n">
         <v>41.24594382033392</v>
@@ -5835,46 +5835,46 @@
         <v>211.1940372584257</v>
       </c>
       <c r="L21" t="n">
-        <v>407.9058885347471</v>
+        <v>407.9058885347472</v>
       </c>
       <c r="M21" t="n">
-        <v>407.9058885347471</v>
+        <v>604.6177398110686</v>
       </c>
       <c r="N21" t="n">
-        <v>604.6177398110685</v>
+        <v>690.1517879427125</v>
       </c>
       <c r="O21" t="n">
-        <v>794.7953586922076</v>
+        <v>690.1517879427125</v>
       </c>
       <c r="P21" t="n">
-        <v>794.7953586922076</v>
+        <v>690.1517879427125</v>
       </c>
       <c r="Q21" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="R21" t="n">
-        <v>794.7953586922076</v>
+        <v>766.9480128140408</v>
       </c>
       <c r="S21" t="n">
-        <v>698.6127453103043</v>
+        <v>766.9480128140408</v>
       </c>
       <c r="T21" t="n">
-        <v>497.9068466506559</v>
+        <v>566.2421141543923</v>
       </c>
       <c r="U21" t="n">
-        <v>297.2009479910075</v>
+        <v>566.2421141543923</v>
       </c>
       <c r="V21" t="n">
-        <v>96.49504933135914</v>
+        <v>566.2421141543923</v>
       </c>
       <c r="W21" t="n">
-        <v>96.49504933135914</v>
+        <v>566.2421141543923</v>
       </c>
       <c r="X21" t="n">
-        <v>96.49504933135914</v>
+        <v>365.5362154947439</v>
       </c>
       <c r="Y21" t="n">
-        <v>96.49504933135914</v>
+        <v>164.8303168350954</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.89590717384415</v>
+        <v>184.8320901017511</v>
       </c>
       <c r="C22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="D22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="E22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="F22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="G22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="H22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J22" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="K22" t="n">
-        <v>20.74594372277243</v>
+        <v>20.74594372277244</v>
       </c>
       <c r="L22" t="n">
         <v>82.47875529922223</v>
@@ -5929,31 +5929,31 @@
         <v>319.4411870795273</v>
       </c>
       <c r="Q22" t="n">
-        <v>252.1879277620848</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="R22" t="n">
-        <v>252.1879277620848</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="S22" t="n">
-        <v>51.48202910243637</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="T22" t="n">
-        <v>51.48202910243637</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="U22" t="n">
-        <v>51.48202910243637</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="V22" t="n">
-        <v>51.48202910243637</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="W22" t="n">
-        <v>51.48202910243637</v>
+        <v>184.8320901017511</v>
       </c>
       <c r="X22" t="n">
-        <v>51.48202910243637</v>
+        <v>184.8320901017511</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.89590717384415</v>
+        <v>184.8320901017511</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>476.9504770461741</v>
+        <v>476.9504770461738</v>
       </c>
       <c r="C23" t="n">
-        <v>411.2262783594953</v>
+        <v>411.2262783594949</v>
       </c>
       <c r="D23" t="n">
-        <v>356.1988980064778</v>
+        <v>356.1988980064775</v>
       </c>
       <c r="E23" t="n">
         <v>273.6489636619665</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9013771260919</v>
+        <v>165.9013771260923</v>
       </c>
       <c r="G23" t="n">
-        <v>50.16856350228367</v>
+        <v>50.16856350228311</v>
       </c>
       <c r="H23" t="n">
-        <v>15.89590717384481</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I23" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J23" t="n">
-        <v>15.89590717384415</v>
+        <v>47.86977448817006</v>
       </c>
       <c r="K23" t="n">
-        <v>15.89590717384415</v>
+        <v>191.6526205901298</v>
       </c>
       <c r="L23" t="n">
-        <v>212.6077584501656</v>
+        <v>388.3644718664513</v>
       </c>
       <c r="M23" t="n">
-        <v>409.319609726487</v>
+        <v>388.3644718664513</v>
       </c>
       <c r="N23" t="n">
-        <v>606.0314610028083</v>
+        <v>388.3644718664513</v>
       </c>
       <c r="O23" t="n">
-        <v>794.7953586922076</v>
+        <v>585.0763231427727</v>
       </c>
       <c r="P23" t="n">
-        <v>794.7953586922076</v>
+        <v>748.9527481072033</v>
       </c>
       <c r="Q23" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="R23" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="S23" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="T23" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="U23" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="V23" t="n">
-        <v>766.9707896023699</v>
+        <v>766.9707896023695</v>
       </c>
       <c r="W23" t="n">
-        <v>717.4404525859886</v>
+        <v>717.4404525859884</v>
       </c>
       <c r="X23" t="n">
-        <v>647.2130125786417</v>
+        <v>647.2130125786415</v>
       </c>
       <c r="Y23" t="n">
-        <v>560.3119988565629</v>
+        <v>560.3119988565627</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.89590717384415</v>
+        <v>164.8303168350954</v>
       </c>
       <c r="C24" t="n">
-        <v>15.89590717384415</v>
+        <v>164.8303168350954</v>
       </c>
       <c r="D24" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="E24" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="F24" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="G24" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="H24" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I24" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J24" t="n">
-        <v>15.89590717384415</v>
+        <v>41.24594382033392</v>
       </c>
       <c r="K24" t="n">
-        <v>15.89590717384415</v>
+        <v>211.1940372584257</v>
       </c>
       <c r="L24" t="n">
-        <v>212.6077584501656</v>
+        <v>211.1940372584257</v>
       </c>
       <c r="M24" t="n">
-        <v>409.319609726487</v>
+        <v>407.9058885347472</v>
       </c>
       <c r="N24" t="n">
-        <v>409.319609726487</v>
+        <v>604.6177398110686</v>
       </c>
       <c r="O24" t="n">
-        <v>598.0835074158863</v>
+        <v>604.6177398110686</v>
       </c>
       <c r="P24" t="n">
-        <v>794.7953586922076</v>
+        <v>690.1517879427125</v>
       </c>
       <c r="Q24" t="n">
-        <v>794.7953586922076</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="R24" t="n">
-        <v>711.1188348201648</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="S24" t="n">
-        <v>618.0136031527893</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="T24" t="n">
-        <v>417.3077044931409</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="U24" t="n">
-        <v>417.3077044931409</v>
+        <v>794.7953586922079</v>
       </c>
       <c r="V24" t="n">
-        <v>216.6018058334926</v>
+        <v>766.9480128140408</v>
       </c>
       <c r="W24" t="n">
-        <v>15.89590717384415</v>
+        <v>566.2421141543923</v>
       </c>
       <c r="X24" t="n">
-        <v>15.89590717384415</v>
+        <v>365.5362154947439</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.89590717384415</v>
+        <v>164.8303168350954</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.89590717384415</v>
+        <v>118.7352884198788</v>
       </c>
       <c r="C25" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="D25" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="E25" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="F25" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="G25" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="H25" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="I25" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="J25" t="n">
-        <v>15.89590717384415</v>
+        <v>15.89590717384416</v>
       </c>
       <c r="K25" t="n">
-        <v>20.74594372277243</v>
+        <v>20.74594372277244</v>
       </c>
       <c r="L25" t="n">
         <v>82.47875529922223</v>
@@ -6166,31 +6166,31 @@
         <v>319.4411870795273</v>
       </c>
       <c r="Q25" t="n">
-        <v>252.1879277620848</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="R25" t="n">
-        <v>252.1879277620848</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="S25" t="n">
-        <v>252.1879277620848</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="T25" t="n">
-        <v>252.1879277620848</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="U25" t="n">
-        <v>51.48202910243637</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="V25" t="n">
-        <v>15.89590717384415</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="W25" t="n">
-        <v>15.89590717384415</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="X25" t="n">
-        <v>15.89590717384415</v>
+        <v>118.7352884198788</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.89590717384415</v>
+        <v>118.7352884198788</v>
       </c>
     </row>
     <row r="26">
@@ -6209,49 +6209,49 @@
         <v>1048.638276977322</v>
       </c>
       <c r="E26" t="n">
-        <v>813.3571862203469</v>
+        <v>813.357186220347</v>
       </c>
       <c r="F26" t="n">
-        <v>552.8784432720083</v>
+        <v>552.8784432720086</v>
       </c>
       <c r="G26" t="n">
-        <v>284.4144732357362</v>
+        <v>284.4144732357365</v>
       </c>
       <c r="H26" t="n">
-        <v>97.41066049483345</v>
+        <v>97.41066049483354</v>
       </c>
       <c r="I26" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="J26" t="n">
-        <v>235.1029331023914</v>
+        <v>235.1029331023913</v>
       </c>
       <c r="K26" t="n">
-        <v>551.2803454048153</v>
+        <v>551.2803454048151</v>
       </c>
       <c r="L26" t="n">
-        <v>960.3133146464274</v>
+        <v>960.3133146464272</v>
       </c>
       <c r="M26" t="n">
         <v>1415.424320284889</v>
       </c>
       <c r="N26" t="n">
-        <v>1860.880600751947</v>
+        <v>1860.880600751948</v>
       </c>
       <c r="O26" t="n">
         <v>2244.545302124367</v>
       </c>
       <c r="P26" t="n">
-        <v>2555.933796409425</v>
+        <v>2555.933796409426</v>
       </c>
       <c r="Q26" t="n">
         <v>2749.288476315058</v>
       </c>
       <c r="R26" t="n">
-        <v>2780.849823371875</v>
+        <v>2780.849823371876</v>
       </c>
       <c r="S26" t="n">
-        <v>2732.225106987912</v>
+        <v>2732.225106987913</v>
       </c>
       <c r="T26" t="n">
         <v>2659.688041972995</v>
@@ -6260,16 +6260,16 @@
         <v>2556.352832550298</v>
       </c>
       <c r="V26" t="n">
-        <v>2375.797107047996</v>
+        <v>2375.797107047997</v>
       </c>
       <c r="W26" t="n">
-        <v>2173.535613619151</v>
+        <v>2173.535613619152</v>
       </c>
       <c r="X26" t="n">
         <v>1950.577017199341</v>
       </c>
       <c r="Y26" t="n">
-        <v>1710.944847064798</v>
+        <v>1710.944847064799</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>538.2418904152713</v>
+        <v>849.6458295822733</v>
       </c>
       <c r="C27" t="n">
-        <v>363.7888611341443</v>
+        <v>675.1928003011463</v>
       </c>
       <c r="D27" t="n">
-        <v>214.854451472893</v>
+        <v>526.2583906398951</v>
       </c>
       <c r="E27" t="n">
-        <v>55.6169964674375</v>
+        <v>517.5280974757087</v>
       </c>
       <c r="F27" t="n">
-        <v>55.6169964674375</v>
+        <v>385.3132737271974</v>
       </c>
       <c r="G27" t="n">
-        <v>55.6169964674375</v>
+        <v>246.8641949381766</v>
       </c>
       <c r="H27" t="n">
-        <v>55.6169964674375</v>
+        <v>136.2161386249525</v>
       </c>
       <c r="I27" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="J27" t="n">
         <v>80.96703311392727</v>
@@ -6330,25 +6330,25 @@
         <v>1918.273847981469</v>
       </c>
       <c r="S27" t="n">
-        <v>1890.207369837716</v>
+        <v>1750.08982348091</v>
       </c>
       <c r="T27" t="n">
-        <v>1839.663573666989</v>
+        <v>1699.546027310183</v>
       </c>
       <c r="U27" t="n">
-        <v>1611.45849136577</v>
+        <v>1621.848106850234</v>
       </c>
       <c r="V27" t="n">
-        <v>1376.306383134028</v>
+        <v>1386.695998618491</v>
       </c>
       <c r="W27" t="n">
-        <v>1122.069026405826</v>
+        <v>1282.965803731559</v>
       </c>
       <c r="X27" t="n">
-        <v>914.2175262002932</v>
+        <v>1075.114303526026</v>
       </c>
       <c r="Y27" t="n">
-        <v>706.4572274353393</v>
+        <v>1017.861166602341</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>104.2490815640026</v>
+        <v>100.7038497860769</v>
       </c>
       <c r="C28" t="n">
-        <v>85.82006047736488</v>
+        <v>82.2748286994391</v>
       </c>
       <c r="D28" t="n">
-        <v>85.82006047736488</v>
+        <v>82.2748286994391</v>
       </c>
       <c r="E28" t="n">
-        <v>85.82006047736488</v>
+        <v>82.2748286994391</v>
       </c>
       <c r="F28" t="n">
-        <v>85.82006047736488</v>
+        <v>85.82006047736505</v>
       </c>
       <c r="G28" t="n">
-        <v>66.87557128953443</v>
+        <v>66.87557128953452</v>
       </c>
       <c r="H28" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="I28" t="n">
-        <v>55.6169964674375</v>
+        <v>56.19512417614191</v>
       </c>
       <c r="J28" t="n">
-        <v>55.6169964674375</v>
+        <v>56.19512417614191</v>
       </c>
       <c r="K28" t="n">
-        <v>60.46703301636578</v>
+        <v>208.5572300456981</v>
       </c>
       <c r="L28" t="n">
-        <v>122.1998445928156</v>
+        <v>270.2900416221479</v>
       </c>
       <c r="M28" t="n">
-        <v>197.6775619158149</v>
+        <v>493.2798282657751</v>
       </c>
       <c r="N28" t="n">
-        <v>424.3072735643475</v>
+        <v>572.3974705936797</v>
       </c>
       <c r="O28" t="n">
-        <v>628.8809956217899</v>
+        <v>722.8326181538034</v>
       </c>
       <c r="P28" t="n">
-        <v>801.6984843350045</v>
+        <v>748.13803754639</v>
       </c>
       <c r="Q28" t="n">
-        <v>833.2804191879176</v>
+        <v>829.7351874099926</v>
       </c>
       <c r="R28" t="n">
-        <v>815.3240688659238</v>
+        <v>811.7788370879987</v>
       </c>
       <c r="S28" t="n">
-        <v>743.6682809692891</v>
+        <v>740.1230491913639</v>
       </c>
       <c r="T28" t="n">
-        <v>664.9366203819501</v>
+        <v>661.3913886040249</v>
       </c>
       <c r="U28" t="n">
-        <v>526.245525472291</v>
+        <v>522.7002936943657</v>
       </c>
       <c r="V28" t="n">
-        <v>422.0681991076734</v>
+        <v>418.522967329748</v>
       </c>
       <c r="W28" t="n">
-        <v>283.158190911982</v>
+        <v>279.6129591340566</v>
       </c>
       <c r="X28" t="n">
-        <v>205.6758018552339</v>
+        <v>202.1305700773084</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.390384552973</v>
+        <v>131.8451527750474</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1474.852168841944</v>
+        <v>1474.852168841945</v>
       </c>
       <c r="C29" t="n">
-        <v>1256.396813742802</v>
+        <v>1256.396813742803</v>
       </c>
       <c r="D29" t="n">
         <v>1048.638276977321</v>
       </c>
       <c r="E29" t="n">
-        <v>813.3571862203457</v>
+        <v>813.3571862203462</v>
       </c>
       <c r="F29" t="n">
-        <v>552.8784432720074</v>
+        <v>552.8784432720079</v>
       </c>
       <c r="G29" t="n">
-        <v>284.4144732357354</v>
+        <v>284.4144732357358</v>
       </c>
       <c r="H29" t="n">
-        <v>97.41066049483344</v>
+        <v>97.41066049483325</v>
       </c>
       <c r="I29" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="J29" t="n">
-        <v>235.1029331023914</v>
+        <v>235.1029331023913</v>
       </c>
       <c r="K29" t="n">
         <v>551.2803454048153</v>
       </c>
       <c r="L29" t="n">
-        <v>960.3133146464274</v>
+        <v>960.3133146464273</v>
       </c>
       <c r="M29" t="n">
         <v>1415.424320284889</v>
@@ -6485,28 +6485,28 @@
         <v>2749.288476315058</v>
       </c>
       <c r="R29" t="n">
-        <v>2780.849823371875</v>
+        <v>2780.849823371876</v>
       </c>
       <c r="S29" t="n">
-        <v>2732.225106987912</v>
+        <v>2732.225106987913</v>
       </c>
       <c r="T29" t="n">
-        <v>2659.688041972994</v>
+        <v>2659.688041972995</v>
       </c>
       <c r="U29" t="n">
-        <v>2556.352832550297</v>
+        <v>2556.352832550298</v>
       </c>
       <c r="V29" t="n">
-        <v>2375.797107047995</v>
+        <v>2375.797107047996</v>
       </c>
       <c r="W29" t="n">
-        <v>2173.53561361915</v>
+        <v>2173.535613619151</v>
       </c>
       <c r="X29" t="n">
-        <v>1950.57701719934</v>
+        <v>1950.577017199341</v>
       </c>
       <c r="Y29" t="n">
-        <v>1710.944847064797</v>
+        <v>1710.944847064798</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>699.1386677410043</v>
+        <v>534.2692865471171</v>
       </c>
       <c r="C30" t="n">
-        <v>524.6856384598773</v>
+        <v>359.8162572659901</v>
       </c>
       <c r="D30" t="n">
-        <v>375.751228798626</v>
+        <v>210.8818476047388</v>
       </c>
       <c r="E30" t="n">
-        <v>216.5137737931705</v>
+        <v>202.1515544405525</v>
       </c>
       <c r="F30" t="n">
-        <v>69.97921582005549</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="G30" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="H30" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="I30" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="J30" t="n">
         <v>80.96703311392727</v>
@@ -6567,25 +6567,25 @@
         <v>1918.273847981469</v>
       </c>
       <c r="S30" t="n">
-        <v>1900.59698532218</v>
+        <v>1750.08982348091</v>
       </c>
       <c r="T30" t="n">
-        <v>1850.053189151453</v>
+        <v>1685.183807957565</v>
       </c>
       <c r="U30" t="n">
-        <v>1621.848106850234</v>
+        <v>1456.978725656347</v>
       </c>
       <c r="V30" t="n">
-        <v>1386.695998618491</v>
+        <v>1372.333779265873</v>
       </c>
       <c r="W30" t="n">
-        <v>1132.45864189029</v>
+        <v>1118.096422537672</v>
       </c>
       <c r="X30" t="n">
-        <v>924.6071416847569</v>
+        <v>910.2449223321389</v>
       </c>
       <c r="Y30" t="n">
-        <v>716.8468429198031</v>
+        <v>702.4846235671851</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.2490815640026</v>
+        <v>97.77865245295446</v>
       </c>
       <c r="C31" t="n">
-        <v>85.82006047736488</v>
+        <v>79.34963136631676</v>
       </c>
       <c r="D31" t="n">
-        <v>85.82006047736488</v>
+        <v>79.73238239891447</v>
       </c>
       <c r="E31" t="n">
-        <v>85.82006047736488</v>
+        <v>82.27482869943893</v>
       </c>
       <c r="F31" t="n">
-        <v>85.82006047736488</v>
+        <v>85.82006047736493</v>
       </c>
       <c r="G31" t="n">
-        <v>66.87557128953443</v>
+        <v>66.87557128953446</v>
       </c>
       <c r="H31" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="I31" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="J31" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="K31" t="n">
-        <v>60.46703301636578</v>
+        <v>60.46703301636579</v>
       </c>
       <c r="L31" t="n">
-        <v>269.7119139134435</v>
+        <v>213.2262697917065</v>
       </c>
       <c r="M31" t="n">
-        <v>492.7017005570708</v>
+        <v>288.7039871147058</v>
       </c>
       <c r="N31" t="n">
-        <v>669.316197194914</v>
+        <v>367.8216294426105</v>
       </c>
       <c r="O31" t="n">
-        <v>726.3778499317284</v>
+        <v>572.3953515000528</v>
       </c>
       <c r="P31" t="n">
-        <v>751.683269324315</v>
+        <v>745.2128402132673</v>
       </c>
       <c r="Q31" t="n">
-        <v>833.2804191879176</v>
+        <v>826.8099900768699</v>
       </c>
       <c r="R31" t="n">
-        <v>815.3240688659238</v>
+        <v>808.8536397548761</v>
       </c>
       <c r="S31" t="n">
-        <v>743.6682809692891</v>
+        <v>737.1978518582413</v>
       </c>
       <c r="T31" t="n">
-        <v>664.9366203819501</v>
+        <v>658.4661912709023</v>
       </c>
       <c r="U31" t="n">
-        <v>526.245525472291</v>
+        <v>519.7750963612431</v>
       </c>
       <c r="V31" t="n">
-        <v>422.0681991076734</v>
+        <v>415.5977699966254</v>
       </c>
       <c r="W31" t="n">
-        <v>283.158190911982</v>
+        <v>276.687761800934</v>
       </c>
       <c r="X31" t="n">
-        <v>205.6758018552339</v>
+        <v>199.2053727441859</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.390384552973</v>
+        <v>128.919955441925</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1474.852168841945</v>
+        <v>1474.852168841946</v>
       </c>
       <c r="C32" t="n">
-        <v>1256.396813742802</v>
+        <v>1256.396813742803</v>
       </c>
       <c r="D32" t="n">
-        <v>1048.638276977321</v>
+        <v>1048.638276977322</v>
       </c>
       <c r="E32" t="n">
-        <v>813.3571862203459</v>
+        <v>813.3571862203468</v>
       </c>
       <c r="F32" t="n">
-        <v>552.8784432720073</v>
+        <v>552.8784432720083</v>
       </c>
       <c r="G32" t="n">
-        <v>284.4144732357354</v>
+        <v>284.4144732357363</v>
       </c>
       <c r="H32" t="n">
-        <v>97.41066049483344</v>
+        <v>97.41066049483348</v>
       </c>
       <c r="I32" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="J32" t="n">
-        <v>235.1029331023914</v>
+        <v>235.1029331023915</v>
       </c>
       <c r="K32" t="n">
-        <v>551.2803454048153</v>
+        <v>551.2803454048154</v>
       </c>
       <c r="L32" t="n">
-        <v>960.3133146464274</v>
+        <v>960.3133146464276</v>
       </c>
       <c r="M32" t="n">
-        <v>1415.424320284889</v>
+        <v>1415.42432028489</v>
       </c>
       <c r="N32" t="n">
-        <v>1860.880600751947</v>
+        <v>1860.880600751948</v>
       </c>
       <c r="O32" t="n">
         <v>2244.545302124367</v>
       </c>
       <c r="P32" t="n">
-        <v>2555.933796409425</v>
+        <v>2555.933796409426</v>
       </c>
       <c r="Q32" t="n">
         <v>2749.288476315058</v>
       </c>
       <c r="R32" t="n">
-        <v>2780.849823371875</v>
+        <v>2780.849823371876</v>
       </c>
       <c r="S32" t="n">
-        <v>2732.225106987912</v>
+        <v>2732.225106987913</v>
       </c>
       <c r="T32" t="n">
-        <v>2659.688041972994</v>
+        <v>2659.688041972995</v>
       </c>
       <c r="U32" t="n">
-        <v>2556.352832550297</v>
+        <v>2556.352832550298</v>
       </c>
       <c r="V32" t="n">
-        <v>2375.797107047995</v>
+        <v>2375.797107047996</v>
       </c>
       <c r="W32" t="n">
-        <v>2173.53561361915</v>
+        <v>2173.535613619151</v>
       </c>
       <c r="X32" t="n">
-        <v>1950.57701719934</v>
+        <v>1950.577017199341</v>
       </c>
       <c r="Y32" t="n">
-        <v>1710.944847064797</v>
+        <v>1710.944847064798</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>684.7764483883863</v>
+        <v>534.2692865471171</v>
       </c>
       <c r="C33" t="n">
         <v>510.3234191072593</v>
@@ -6765,16 +6765,16 @@
         <v>202.1515544405525</v>
       </c>
       <c r="F33" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="G33" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="H33" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="I33" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="J33" t="n">
         <v>80.96703311392727</v>
@@ -6801,19 +6801,19 @@
         <v>2001.950371853512</v>
       </c>
       <c r="R33" t="n">
-        <v>2001.950371853512</v>
+        <v>1918.273847981469</v>
       </c>
       <c r="S33" t="n">
-        <v>1886.234765969562</v>
+        <v>1750.08982348091</v>
       </c>
       <c r="T33" t="n">
-        <v>1835.690969798835</v>
+        <v>1685.183807957565</v>
       </c>
       <c r="U33" t="n">
-        <v>1607.485887497616</v>
+        <v>1456.978725656347</v>
       </c>
       <c r="V33" t="n">
-        <v>1372.333779265873</v>
+        <v>1221.826617424604</v>
       </c>
       <c r="W33" t="n">
         <v>1118.096422537672</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.7038497860765</v>
+        <v>98.16140348555217</v>
       </c>
       <c r="C34" t="n">
-        <v>82.27482869943884</v>
+        <v>79.73238239891447</v>
       </c>
       <c r="D34" t="n">
-        <v>82.27482869943884</v>
+        <v>79.73238239891447</v>
       </c>
       <c r="E34" t="n">
-        <v>82.27482869943884</v>
+        <v>82.27482869943893</v>
       </c>
       <c r="F34" t="n">
-        <v>85.82006047736488</v>
+        <v>85.82006047736493</v>
       </c>
       <c r="G34" t="n">
-        <v>66.87557128953443</v>
+        <v>66.87557128953446</v>
       </c>
       <c r="H34" t="n">
-        <v>55.6169964674375</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="I34" t="n">
-        <v>56.19512417614199</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="J34" t="n">
-        <v>127.649107042892</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="K34" t="n">
-        <v>280.0112129124483</v>
+        <v>207.9791023369937</v>
       </c>
       <c r="L34" t="n">
-        <v>489.2560938095261</v>
+        <v>269.7119139134435</v>
       </c>
       <c r="M34" t="n">
-        <v>586.6533230890833</v>
+        <v>492.7017005570707</v>
       </c>
       <c r="N34" t="n">
-        <v>665.7709654169879</v>
+        <v>719.3314122056033</v>
       </c>
       <c r="O34" t="n">
-        <v>722.8326181538023</v>
+        <v>776.3930649424177</v>
       </c>
       <c r="P34" t="n">
-        <v>748.1380375463889</v>
+        <v>801.6984843350043</v>
       </c>
       <c r="Q34" t="n">
-        <v>829.7351874099915</v>
+        <v>827.1927411094674</v>
       </c>
       <c r="R34" t="n">
-        <v>811.7788370879977</v>
+        <v>809.2363907874736</v>
       </c>
       <c r="S34" t="n">
-        <v>740.123049191363</v>
+        <v>737.5806028908388</v>
       </c>
       <c r="T34" t="n">
-        <v>661.3913886040241</v>
+        <v>658.8489423034998</v>
       </c>
       <c r="U34" t="n">
-        <v>522.700293694365</v>
+        <v>520.1578473938407</v>
       </c>
       <c r="V34" t="n">
-        <v>418.5229673297473</v>
+        <v>415.980521029223</v>
       </c>
       <c r="W34" t="n">
-        <v>279.6129591340559</v>
+        <v>277.0705128335317</v>
       </c>
       <c r="X34" t="n">
-        <v>202.1305700773079</v>
+        <v>199.5881237767836</v>
       </c>
       <c r="Y34" t="n">
-        <v>131.845152775047</v>
+        <v>129.3027064745227</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6914,58 @@
         <v>1099.402103283626</v>
       </c>
       <c r="C35" t="n">
-        <v>933.9068305773301</v>
+        <v>933.9068305773305</v>
       </c>
       <c r="D35" t="n">
-        <v>779.1083762046952</v>
+        <v>779.1083762046958</v>
       </c>
       <c r="E35" t="n">
-        <v>596.7873678405666</v>
+        <v>596.7873678405672</v>
       </c>
       <c r="F35" t="n">
-        <v>389.2687072850748</v>
+        <v>389.2687072850754</v>
       </c>
       <c r="G35" t="n">
         <v>173.7648196416495</v>
       </c>
       <c r="H35" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I35" t="n">
-        <v>50.66529593357139</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J35" t="n">
-        <v>82.63916324789729</v>
+        <v>271.113202681776</v>
       </c>
       <c r="K35" t="n">
-        <v>251.3045062296932</v>
+        <v>439.7785456635719</v>
       </c>
       <c r="L35" t="n">
-        <v>512.8254061506774</v>
+        <v>701.2994455845561</v>
       </c>
       <c r="M35" t="n">
-        <v>820.4243424685114</v>
+        <v>1192.847925592774</v>
       </c>
       <c r="N35" t="n">
-        <v>1118.368553614942</v>
+        <v>1490.792136739204</v>
       </c>
       <c r="O35" t="n">
-        <v>1354.521185666733</v>
+        <v>1726.944768790995</v>
       </c>
       <c r="P35" t="n">
-        <v>1653.076991985453</v>
+        <v>1890.821193755426</v>
       </c>
       <c r="Q35" t="n">
-        <v>1898.337848644315</v>
+        <v>1936.66380434043</v>
       </c>
       <c r="R35" t="n">
-        <v>1981.805372454361</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S35" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T35" t="n">
-        <v>1966.477482057596</v>
+        <v>1966.477482057597</v>
       </c>
       <c r="U35" t="n">
         <v>1916.102355027746</v>
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>590.2422283666017</v>
+        <v>516.4487569273917</v>
       </c>
       <c r="C36" t="n">
-        <v>415.7891990854746</v>
+        <v>341.9957276462648</v>
       </c>
       <c r="D36" t="n">
-        <v>266.8547894242234</v>
+        <v>341.9957276462648</v>
       </c>
       <c r="E36" t="n">
-        <v>266.8547894242234</v>
+        <v>182.7582726408093</v>
       </c>
       <c r="F36" t="n">
-        <v>120.3202314511083</v>
+        <v>182.7582726408093</v>
       </c>
       <c r="G36" t="n">
-        <v>120.3202314511083</v>
+        <v>44.30919385178842</v>
       </c>
       <c r="H36" t="n">
-        <v>120.3202314511083</v>
+        <v>44.30919385178842</v>
       </c>
       <c r="I36" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J36" t="n">
-        <v>65.07112594008312</v>
+        <v>65.07112594008322</v>
       </c>
       <c r="K36" t="n">
         <v>235.019219378175</v>
       </c>
       <c r="L36" t="n">
-        <v>524.939800189879</v>
+        <v>524.9398001898791</v>
       </c>
       <c r="M36" t="n">
-        <v>915.2426649670831</v>
+        <v>915.2426649670833</v>
       </c>
       <c r="N36" t="n">
-        <v>1331.582698579976</v>
+        <v>1331.582698579977</v>
       </c>
       <c r="O36" t="n">
         <v>1646.036812456933</v>
@@ -7035,31 +7035,31 @@
         <v>1881.410893930172</v>
       </c>
       <c r="Q36" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R36" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S36" t="n">
-        <v>1891.663911618319</v>
+        <v>1817.870440179109</v>
       </c>
       <c r="T36" t="n">
-        <v>1891.663911618319</v>
+        <v>1817.870440179109</v>
       </c>
       <c r="U36" t="n">
-        <v>1663.458829317101</v>
+        <v>1589.665357877891</v>
       </c>
       <c r="V36" t="n">
-        <v>1428.306721085358</v>
+        <v>1354.513249646148</v>
       </c>
       <c r="W36" t="n">
-        <v>1174.069364357156</v>
+        <v>1100.275892917947</v>
       </c>
       <c r="X36" t="n">
-        <v>966.2178641516236</v>
+        <v>892.4243927124137</v>
       </c>
       <c r="Y36" t="n">
-        <v>758.4575653866698</v>
+        <v>684.6640939474598</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="C37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="D37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="E37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="F37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I37" t="n">
-        <v>45.38891695093594</v>
+        <v>45.38891695093593</v>
       </c>
       <c r="J37" t="n">
-        <v>45.38891695093594</v>
+        <v>45.38891695093593</v>
       </c>
       <c r="K37" t="n">
-        <v>50.23895349986422</v>
+        <v>50.2389534998642</v>
       </c>
       <c r="L37" t="n">
         <v>111.971765076314</v>
@@ -7105,40 +7105,40 @@
         <v>187.4494823993133</v>
       </c>
       <c r="N37" t="n">
-        <v>266.567124727218</v>
+        <v>266.5671247272179</v>
       </c>
       <c r="O37" t="n">
-        <v>323.6287774640324</v>
+        <v>323.6287774640323</v>
       </c>
       <c r="P37" t="n">
-        <v>348.9341968566191</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="Q37" t="n">
-        <v>348.9341968566191</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="R37" t="n">
-        <v>348.9341968566191</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="S37" t="n">
-        <v>330.2384913528307</v>
+        <v>330.2384913528306</v>
       </c>
       <c r="T37" t="n">
-        <v>304.4669131583383</v>
+        <v>304.4669131583381</v>
       </c>
       <c r="U37" t="n">
-        <v>218.7359006415256</v>
+        <v>218.7359006415255</v>
       </c>
       <c r="V37" t="n">
-        <v>167.5186566697544</v>
+        <v>167.5186566697543</v>
       </c>
       <c r="W37" t="n">
-        <v>81.56873086690945</v>
+        <v>81.56873086690939</v>
       </c>
       <c r="X37" t="n">
-        <v>57.04642420300778</v>
+        <v>57.04642420300776</v>
       </c>
       <c r="Y37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
     </row>
     <row r="38">
@@ -7151,55 +7151,55 @@
         <v>1099.402103283626</v>
       </c>
       <c r="C38" t="n">
-        <v>933.90683057733</v>
+        <v>933.9068305773303</v>
       </c>
       <c r="D38" t="n">
-        <v>779.1083762046951</v>
+        <v>779.1083762046956</v>
       </c>
       <c r="E38" t="n">
-        <v>596.7873678405665</v>
+        <v>596.787367840567</v>
       </c>
       <c r="F38" t="n">
-        <v>389.2687072850746</v>
+        <v>389.2687072850751</v>
       </c>
       <c r="G38" t="n">
         <v>173.7648196416495</v>
       </c>
       <c r="H38" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I38" t="n">
-        <v>50.66529593357139</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J38" t="n">
-        <v>282.0574093217541</v>
+        <v>105.6169145636834</v>
       </c>
       <c r="K38" t="n">
-        <v>585.4021336578398</v>
+        <v>274.2822575454794</v>
       </c>
       <c r="L38" t="n">
-        <v>846.9230335788241</v>
+        <v>535.8031574664635</v>
       </c>
       <c r="M38" t="n">
-        <v>1154.521969896658</v>
+        <v>843.4020937842976</v>
       </c>
       <c r="N38" t="n">
-        <v>1452.466181043089</v>
+        <v>1141.346304930728</v>
       </c>
       <c r="O38" t="n">
-        <v>1688.61881309488</v>
+        <v>1576.917183056376</v>
       </c>
       <c r="P38" t="n">
-        <v>1852.49523805931</v>
+        <v>1740.793608020806</v>
       </c>
       <c r="Q38" t="n">
-        <v>1898.337848644315</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R38" t="n">
-        <v>1981.805372454361</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S38" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T38" t="n">
         <v>1966.477482057597</v>
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>600.5452737108059</v>
+        <v>486.342032749321</v>
       </c>
       <c r="C39" t="n">
-        <v>426.0922444296789</v>
+        <v>486.342032749321</v>
       </c>
       <c r="D39" t="n">
-        <v>426.0922444296789</v>
+        <v>337.4076230880697</v>
       </c>
       <c r="E39" t="n">
-        <v>266.8547894242234</v>
+        <v>178.1701680826142</v>
       </c>
       <c r="F39" t="n">
-        <v>120.3202314511083</v>
+        <v>178.1701680826142</v>
       </c>
       <c r="G39" t="n">
-        <v>120.3202314511083</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H39" t="n">
-        <v>120.3202314511083</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I39" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J39" t="n">
         <v>65.07112594008312</v>
@@ -7278,25 +7278,25 @@
         <v>1902.377940807625</v>
       </c>
       <c r="S39" t="n">
-        <v>1901.966956962523</v>
+        <v>1734.193916307066</v>
       </c>
       <c r="T39" t="n">
-        <v>1901.966956962523</v>
+        <v>1533.14295829507</v>
       </c>
       <c r="U39" t="n">
-        <v>1673.761874661305</v>
+        <v>1356.091389465704</v>
       </c>
       <c r="V39" t="n">
-        <v>1438.609766429562</v>
+        <v>1120.939281233962</v>
       </c>
       <c r="W39" t="n">
-        <v>1184.372409701361</v>
+        <v>1070.169168739876</v>
       </c>
       <c r="X39" t="n">
-        <v>976.5209094958277</v>
+        <v>862.3176685343428</v>
       </c>
       <c r="Y39" t="n">
-        <v>768.7606107308739</v>
+        <v>654.557369769389</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>45.38891695093594</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="C40" t="n">
-        <v>45.38891695093594</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="D40" t="n">
-        <v>45.38891695093594</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="E40" t="n">
-        <v>45.38891695093594</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="F40" t="n">
-        <v>45.38891695093594</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G40" t="n">
-        <v>45.38891695093594</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H40" t="n">
-        <v>45.38891695093594</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I40" t="n">
-        <v>45.38891695093594</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J40" t="n">
-        <v>45.38891695093594</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="K40" t="n">
-        <v>50.23895349986422</v>
+        <v>44.57112584252164</v>
       </c>
       <c r="L40" t="n">
-        <v>111.971765076314</v>
+        <v>106.3039374189714</v>
       </c>
       <c r="M40" t="n">
-        <v>187.4494823993133</v>
+        <v>181.7816547419707</v>
       </c>
       <c r="N40" t="n">
-        <v>266.567124727218</v>
+        <v>260.8992970698754</v>
       </c>
       <c r="O40" t="n">
-        <v>323.6287774640324</v>
+        <v>317.9609498066898</v>
       </c>
       <c r="P40" t="n">
-        <v>348.9341968566191</v>
+        <v>343.2663691992765</v>
       </c>
       <c r="Q40" t="n">
-        <v>348.9341968566191</v>
+        <v>343.2663691992765</v>
       </c>
       <c r="R40" t="n">
-        <v>348.9341968566191</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="S40" t="n">
-        <v>330.2384913528307</v>
+        <v>330.2384913528306</v>
       </c>
       <c r="T40" t="n">
-        <v>304.4669131583383</v>
+        <v>304.4669131583381</v>
       </c>
       <c r="U40" t="n">
-        <v>218.7359006415256</v>
+        <v>218.7359006415255</v>
       </c>
       <c r="V40" t="n">
-        <v>167.5186566697544</v>
+        <v>167.5186566697543</v>
       </c>
       <c r="W40" t="n">
-        <v>81.56873086690945</v>
+        <v>81.56873086690939</v>
       </c>
       <c r="X40" t="n">
-        <v>57.04642420300778</v>
+        <v>57.04642420300776</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
     </row>
     <row r="41">
@@ -7388,55 +7388,55 @@
         <v>1099.402103283627</v>
       </c>
       <c r="C41" t="n">
-        <v>933.9068305773308</v>
+        <v>933.9068305773305</v>
       </c>
       <c r="D41" t="n">
-        <v>779.108376204696</v>
+        <v>779.1083762046958</v>
       </c>
       <c r="E41" t="n">
-        <v>596.7873678405674</v>
+        <v>596.7873678405672</v>
       </c>
       <c r="F41" t="n">
-        <v>389.2687072850756</v>
+        <v>389.2687072850753</v>
       </c>
       <c r="G41" t="n">
         <v>173.7648196416495</v>
       </c>
       <c r="H41" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I41" t="n">
-        <v>50.6652959335714</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J41" t="n">
-        <v>282.0574093217541</v>
+        <v>71.69495660791927</v>
       </c>
       <c r="K41" t="n">
-        <v>585.4021336578401</v>
+        <v>289.7509599289526</v>
       </c>
       <c r="L41" t="n">
-        <v>846.9230335788243</v>
+        <v>551.2718598499367</v>
       </c>
       <c r="M41" t="n">
-        <v>1154.521969896658</v>
+        <v>1042.820339858155</v>
       </c>
       <c r="N41" t="n">
-        <v>1452.466181043089</v>
+        <v>1340.764551004585</v>
       </c>
       <c r="O41" t="n">
-        <v>1688.61881309488</v>
+        <v>1576.917183056376</v>
       </c>
       <c r="P41" t="n">
-        <v>1852.49523805931</v>
+        <v>1740.793608020806</v>
       </c>
       <c r="Q41" t="n">
-        <v>1898.337848644315</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R41" t="n">
-        <v>1981.805372454361</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S41" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T41" t="n">
         <v>1966.477482057597</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>432.7722330553486</v>
+        <v>632.9940395546512</v>
       </c>
       <c r="C42" t="n">
-        <v>258.3192037742216</v>
+        <v>458.5410102735242</v>
       </c>
       <c r="D42" t="n">
-        <v>258.3192037742216</v>
+        <v>309.6066006122729</v>
       </c>
       <c r="E42" t="n">
-        <v>258.3192037742216</v>
+        <v>150.3691456068174</v>
       </c>
       <c r="F42" t="n">
-        <v>258.3192037742216</v>
+        <v>150.3691456068174</v>
       </c>
       <c r="G42" t="n">
-        <v>230.9682877643324</v>
+        <v>150.3691456068174</v>
       </c>
       <c r="H42" t="n">
-        <v>120.3202314511084</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I42" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J42" t="n">
-        <v>65.07112594008299</v>
+        <v>65.07112594008312</v>
       </c>
       <c r="K42" t="n">
-        <v>235.0192193781747</v>
+        <v>235.019219378175</v>
       </c>
       <c r="L42" t="n">
-        <v>524.9398001898787</v>
+        <v>524.939800189879</v>
       </c>
       <c r="M42" t="n">
         <v>915.2426649670831</v>
@@ -7509,31 +7509,31 @@
         <v>1881.410893930172</v>
       </c>
       <c r="Q42" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R42" t="n">
-        <v>1902.377940807625</v>
+        <v>1934.415722806369</v>
       </c>
       <c r="S42" t="n">
-        <v>1734.193916307066</v>
+        <v>1934.415722806369</v>
       </c>
       <c r="T42" t="n">
-        <v>1734.193916307066</v>
+        <v>1934.415722806369</v>
       </c>
       <c r="U42" t="n">
-        <v>1505.988834005848</v>
+        <v>1706.21064050515</v>
       </c>
       <c r="V42" t="n">
-        <v>1270.836725774105</v>
+        <v>1471.058532273408</v>
       </c>
       <c r="W42" t="n">
-        <v>1016.599369045903</v>
+        <v>1216.821175545206</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7478688403705</v>
+        <v>1008.969675339673</v>
       </c>
       <c r="Y42" t="n">
-        <v>600.9875700754167</v>
+        <v>801.2093765747193</v>
       </c>
     </row>
     <row r="43">
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="C43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="D43" t="n">
-        <v>39.72108929359335</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="E43" t="n">
-        <v>39.72108929359335</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="F43" t="n">
-        <v>39.72108929359335</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="G43" t="n">
-        <v>39.72108929359335</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="H43" t="n">
-        <v>39.72108929359335</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="I43" t="n">
-        <v>39.72108929359335</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="J43" t="n">
-        <v>39.72108929359335</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="K43" t="n">
-        <v>44.57112584252161</v>
+        <v>50.23895349986405</v>
       </c>
       <c r="L43" t="n">
-        <v>106.3039374189714</v>
+        <v>111.9717650763138</v>
       </c>
       <c r="M43" t="n">
-        <v>181.7816547419706</v>
+        <v>187.4494823993131</v>
       </c>
       <c r="N43" t="n">
-        <v>260.8992970698753</v>
+        <v>266.5671247272178</v>
       </c>
       <c r="O43" t="n">
-        <v>317.9609498066897</v>
+        <v>323.6287774640322</v>
       </c>
       <c r="P43" t="n">
-        <v>343.2663691992763</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="Q43" t="n">
-        <v>343.2663691992763</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="R43" t="n">
         <v>348.9341968566189</v>
@@ -7609,10 +7609,10 @@
         <v>81.56873086690939</v>
       </c>
       <c r="X43" t="n">
-        <v>57.04642420300775</v>
+        <v>57.04642420300776</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>1099.402103283626</v>
       </c>
       <c r="C44" t="n">
-        <v>933.9068305773296</v>
+        <v>933.9068305773299</v>
       </c>
       <c r="D44" t="n">
-        <v>779.1083762046949</v>
+        <v>779.1083762046951</v>
       </c>
       <c r="E44" t="n">
-        <v>596.7873678405663</v>
+        <v>596.7873678405665</v>
       </c>
       <c r="F44" t="n">
-        <v>389.2687072850743</v>
+        <v>389.2687072850745</v>
       </c>
       <c r="G44" t="n">
-        <v>173.7648196416495</v>
+        <v>173.7648196416496</v>
       </c>
       <c r="H44" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I44" t="n">
-        <v>50.66529593357134</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J44" t="n">
-        <v>282.0574093217539</v>
+        <v>71.69495660791927</v>
       </c>
       <c r="K44" t="n">
-        <v>585.4021336578401</v>
+        <v>439.7785456635719</v>
       </c>
       <c r="L44" t="n">
-        <v>846.9230335788243</v>
+        <v>701.2994455845561</v>
       </c>
       <c r="M44" t="n">
         <v>1154.521969896658</v>
@@ -7673,16 +7673,16 @@
         <v>1981.805372454361</v>
       </c>
       <c r="S44" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T44" t="n">
-        <v>1966.477482057596</v>
+        <v>1966.477482057597</v>
       </c>
       <c r="U44" t="n">
-        <v>1916.102355027745</v>
+        <v>1916.102355027746</v>
       </c>
       <c r="V44" t="n">
-        <v>1788.50671191829</v>
+        <v>1788.506711918291</v>
       </c>
       <c r="W44" t="n">
         <v>1639.205300882292</v>
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>690.4049538075953</v>
+        <v>399.9366120634208</v>
       </c>
       <c r="C45" t="n">
-        <v>515.9519245264684</v>
+        <v>345.4931022721639</v>
       </c>
       <c r="D45" t="n">
-        <v>515.9519245264684</v>
+        <v>345.4931022721639</v>
       </c>
       <c r="E45" t="n">
-        <v>515.9519245264684</v>
+        <v>186.2556472667084</v>
       </c>
       <c r="F45" t="n">
-        <v>369.4173665533533</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G45" t="n">
-        <v>230.9682877643324</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H45" t="n">
-        <v>120.3202314511084</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I45" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J45" t="n">
-        <v>65.07112594008362</v>
+        <v>65.07112594008312</v>
       </c>
       <c r="K45" t="n">
-        <v>235.0192193781754</v>
+        <v>235.019219378175</v>
       </c>
       <c r="L45" t="n">
         <v>524.9398001898794</v>
@@ -7746,31 +7746,31 @@
         <v>1881.410893930172</v>
       </c>
       <c r="Q45" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R45" t="n">
         <v>1902.377940807625</v>
       </c>
       <c r="S45" t="n">
-        <v>1902.377940807625</v>
+        <v>1734.193916307067</v>
       </c>
       <c r="T45" t="n">
-        <v>1902.377940807625</v>
+        <v>1533.14295829507</v>
       </c>
       <c r="U45" t="n">
-        <v>1763.621554758094</v>
+        <v>1304.937875993852</v>
       </c>
       <c r="V45" t="n">
-        <v>1528.469446526352</v>
+        <v>1069.785767762109</v>
       </c>
       <c r="W45" t="n">
-        <v>1274.23208979815</v>
+        <v>815.5484110339075</v>
       </c>
       <c r="X45" t="n">
-        <v>1066.380589592617</v>
+        <v>607.6969108283747</v>
       </c>
       <c r="Y45" t="n">
-        <v>858.6202908276634</v>
+        <v>399.9366120634208</v>
       </c>
     </row>
     <row r="46">
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45.38891695093643</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="C46" t="n">
-        <v>45.38891695093643</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="D46" t="n">
-        <v>45.38891695093643</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="E46" t="n">
-        <v>45.38891695093643</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="F46" t="n">
-        <v>45.38891695093643</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G46" t="n">
-        <v>45.38891695093643</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H46" t="n">
-        <v>45.38891695093643</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I46" t="n">
-        <v>45.38891695093643</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J46" t="n">
-        <v>45.38891695093643</v>
+        <v>45.38891695093623</v>
       </c>
       <c r="K46" t="n">
-        <v>50.2389534998647</v>
+        <v>50.23895349986451</v>
       </c>
       <c r="L46" t="n">
-        <v>111.9717650763145</v>
+        <v>111.9717650763143</v>
       </c>
       <c r="M46" t="n">
-        <v>187.4494823993137</v>
+        <v>187.4494823993136</v>
       </c>
       <c r="N46" t="n">
-        <v>266.5671247272184</v>
+        <v>266.5671247272182</v>
       </c>
       <c r="O46" t="n">
         <v>323.6287774640327</v>
@@ -7846,10 +7846,10 @@
         <v>81.5687308669095</v>
       </c>
       <c r="X46" t="n">
-        <v>57.04642420300781</v>
+        <v>57.04642420300782</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
     </row>
   </sheetData>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>136.7997795010375</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>352.197529050791</v>
+        <v>293.8965965338951</v>
       </c>
       <c r="M11" t="n">
-        <v>311.5022800393842</v>
+        <v>138.8075372121921</v>
       </c>
       <c r="N11" t="n">
-        <v>136.393175779226</v>
+        <v>335.092015452278</v>
       </c>
       <c r="O11" t="n">
         <v>340.961008762271</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>100.4849377176919</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,13 +8778,13 @@
         <v>270.1585854662799</v>
       </c>
       <c r="N12" t="n">
-        <v>170.8010118842003</v>
+        <v>145.1949142614835</v>
       </c>
       <c r="O12" t="n">
-        <v>274.9307408922498</v>
+        <v>76.23190121919792</v>
       </c>
       <c r="P12" t="n">
-        <v>80.71117119222058</v>
+        <v>279.4100108652725</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8930,10 +8930,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>327.0636938186332</v>
+        <v>153.4986893777391</v>
       </c>
       <c r="M14" t="n">
-        <v>138.8075372121921</v>
+        <v>337.5063768852441</v>
       </c>
       <c r="N14" t="n">
         <v>136.393175779226</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>187.1811554277469</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>100.4849377176919</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>92.80049616602119</v>
       </c>
       <c r="L15" t="n">
-        <v>276.6901134495373</v>
+        <v>276.6901134495374</v>
       </c>
       <c r="M15" t="n">
-        <v>71.45974579322795</v>
+        <v>270.1585854662799</v>
       </c>
       <c r="N15" t="n">
-        <v>257.4957255187335</v>
+        <v>223.8613919496306</v>
       </c>
       <c r="O15" t="n">
-        <v>95.23776409930656</v>
+        <v>76.23190121919792</v>
       </c>
       <c r="P15" t="n">
         <v>279.4100108652725</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>153.7763792562193</v>
       </c>
       <c r="L17" t="n">
-        <v>352.197529050791</v>
+        <v>311.8724574333688</v>
       </c>
       <c r="M17" t="n">
-        <v>159.9793692376145</v>
+        <v>337.5063768852441</v>
       </c>
       <c r="N17" t="n">
-        <v>136.393175779226</v>
+        <v>335.092015452278</v>
       </c>
       <c r="O17" t="n">
         <v>340.961008762271</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>156.2669657831689</v>
       </c>
       <c r="Q17" t="n">
         <v>166.0093234023244</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>100.4849377176919</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>92.80049616602119</v>
       </c>
       <c r="L18" t="n">
-        <v>276.6901134495373</v>
+        <v>276.6901134495374</v>
       </c>
       <c r="M18" t="n">
-        <v>71.45974579322795</v>
+        <v>130.8236753825353</v>
       </c>
       <c r="N18" t="n">
-        <v>257.4957255187335</v>
+        <v>58.79688584568157</v>
       </c>
       <c r="O18" t="n">
-        <v>95.23776409930656</v>
+        <v>274.9307408922499</v>
       </c>
       <c r="P18" t="n">
         <v>279.4100108652725</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.3767112212073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9404,19 +9404,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>340.2022637914754</v>
+        <v>153.4986893777391</v>
       </c>
       <c r="M20" t="n">
-        <v>337.506376885244</v>
+        <v>337.5063768852441</v>
       </c>
       <c r="N20" t="n">
-        <v>136.393175779226</v>
+        <v>157.5650078046486</v>
       </c>
       <c r="O20" t="n">
         <v>340.961008762271</v>
       </c>
       <c r="P20" t="n">
-        <v>156.2669657831689</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>166.0093234023244</v>
@@ -9483,22 +9483,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>276.6901134495373</v>
+        <v>276.6901134495374</v>
       </c>
       <c r="M21" t="n">
-        <v>71.45974579322795</v>
+        <v>270.1585854662799</v>
       </c>
       <c r="N21" t="n">
-        <v>257.4957255187335</v>
+        <v>145.1949142614835</v>
       </c>
       <c r="O21" t="n">
-        <v>268.3305061496415</v>
+        <v>76.23190121919792</v>
       </c>
       <c r="P21" t="n">
         <v>80.71117119222058</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.3767112212073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>136.7997795010375</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>153.7763792562193</v>
+        <v>299.011577339007</v>
       </c>
       <c r="L23" t="n">
-        <v>352.197529050791</v>
+        <v>352.1975290507911</v>
       </c>
       <c r="M23" t="n">
-        <v>337.506376885244</v>
+        <v>138.8075372121921</v>
       </c>
       <c r="N23" t="n">
-        <v>335.0920154522779</v>
+        <v>136.393175779226</v>
       </c>
       <c r="O23" t="n">
-        <v>332.932772815885</v>
+        <v>340.961008762271</v>
       </c>
       <c r="P23" t="n">
-        <v>156.2669657831689</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>166.0093234023244</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>100.4849377176919</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>92.80049616602119</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>276.6901134495373</v>
+        <v>77.99127377648543</v>
       </c>
       <c r="M24" t="n">
         <v>270.1585854662799</v>
       </c>
       <c r="N24" t="n">
-        <v>58.79688584568157</v>
+        <v>257.4957255187335</v>
       </c>
       <c r="O24" t="n">
-        <v>266.9025049458639</v>
+        <v>76.23190121919792</v>
       </c>
       <c r="P24" t="n">
-        <v>279.4100108652725</v>
+        <v>167.1091996080225</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.3767112212073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358492</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>210.0772877358494</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404094</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>370.8403453034596</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.1025192117102</v>
+        <v>69.68070451114738</v>
       </c>
       <c r="C11" t="n">
-        <v>186.6415693192372</v>
+        <v>186.6415693192373</v>
       </c>
       <c r="D11" t="n">
-        <v>176.0517191689126</v>
+        <v>176.0517191689127</v>
       </c>
       <c r="E11" t="n">
         <v>203.2990476204915</v>
       </c>
       <c r="F11" t="n">
-        <v>228.2447232899411</v>
+        <v>228.2447232899412</v>
       </c>
       <c r="G11" t="n">
-        <v>236.1500981069954</v>
+        <v>37.45125843394352</v>
       </c>
       <c r="H11" t="n">
-        <v>124.1790177145754</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>11.74649515820823</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>42.18246213585442</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.67262509955663</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>170.6096462656427</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>191.0997782266988</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.907776531231349</v>
+        <v>207.6066162042833</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.1025192117102</v>
+        <v>5.403679538658338</v>
       </c>
       <c r="C14" t="n">
-        <v>186.6415693192372</v>
+        <v>11.62763133521321</v>
       </c>
       <c r="D14" t="n">
-        <v>176.0517191689126</v>
+        <v>176.0517191689127</v>
       </c>
       <c r="E14" t="n">
-        <v>203.2990476204915</v>
+        <v>4.600207947439543</v>
       </c>
       <c r="F14" t="n">
-        <v>228.2447232899411</v>
+        <v>228.2447232899412</v>
       </c>
       <c r="G14" t="n">
-        <v>236.1500981069954</v>
+        <v>37.45125843394352</v>
       </c>
       <c r="H14" t="n">
-        <v>155.5045423845797</v>
+        <v>155.5045423845798</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>11.74649515820824</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>18.50923699120973</v>
       </c>
       <c r="T14" t="n">
-        <v>42.18246213585442</v>
+        <v>42.18246213585448</v>
       </c>
       <c r="U14" t="n">
-        <v>41.34710042955265</v>
+        <v>72.67262509955668</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>149.1209360183646</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>170.6096462656427</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>191.0997782266988</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.907776531231349</v>
+        <v>207.6066162042833</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>40963.81693585192</v>
       </c>
       <c r="C2" t="n">
+        <v>40963.81693585191</v>
+      </c>
+      <c r="D2" t="n">
         <v>40963.81693585192</v>
       </c>
-      <c r="D2" t="n">
-        <v>40963.8169358519</v>
-      </c>
       <c r="E2" t="n">
-        <v>35152.01089158413</v>
+        <v>35152.01089158411</v>
       </c>
       <c r="F2" t="n">
-        <v>35152.01089158413</v>
+        <v>35152.01089158411</v>
       </c>
       <c r="G2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="H2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="I2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="J2" t="n">
         <v>41052.08849321415</v>
       </c>
-      <c r="H2" t="n">
-        <v>41052.08849321414</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="L2" t="n">
         <v>41052.08849321416</v>
       </c>
-      <c r="J2" t="n">
-        <v>41052.0884932142</v>
-      </c>
-      <c r="K2" t="n">
-        <v>41052.08849321415</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41052.08849321413</v>
-      </c>
       <c r="M2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321418</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>97259.69009554021</v>
+        <v>97259.69009554025</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151851.7906719068</v>
+        <v>151851.7906719067</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>97259.69009554021</v>
+        <v>97259.69009554025</v>
       </c>
       <c r="M3" t="n">
         <v>41944.38525513437</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>21941.98208274504</v>
+        <v>21941.98208274495</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26454,7 +26454,7 @@
         <v>401149.2079382485</v>
       </c>
       <c r="O4" t="n">
-        <v>401149.2079382485</v>
+        <v>401149.2079382486</v>
       </c>
       <c r="P4" t="n">
         <v>401149.2079382485</v>
@@ -26494,22 +26494,22 @@
         <v>57622.34556334944</v>
       </c>
       <c r="K5" t="n">
-        <v>57622.34556334944</v>
+        <v>57622.34556334945</v>
       </c>
       <c r="L5" t="n">
-        <v>57622.34556334944</v>
+        <v>57622.34556334945</v>
       </c>
       <c r="M5" t="n">
-        <v>49949.23426624525</v>
+        <v>49949.23426624526</v>
       </c>
       <c r="N5" t="n">
-        <v>49949.23426624525</v>
+        <v>49949.23426624526</v>
       </c>
       <c r="O5" t="n">
         <v>49949.23426624526</v>
       </c>
       <c r="P5" t="n">
-        <v>49949.23426624524</v>
+        <v>49949.23426624525</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-445063.7736131132</v>
+        <v>-445068.1871909813</v>
       </c>
       <c r="C6" t="n">
-        <v>-445063.7736131132</v>
+        <v>-445068.1871909813</v>
       </c>
       <c r="D6" t="n">
-        <v>-445063.7736131133</v>
+        <v>-445068.1871909813</v>
       </c>
       <c r="E6" t="n">
-        <v>-640905.8820444753</v>
+        <v>-641200.8859245568</v>
       </c>
       <c r="F6" t="n">
-        <v>-334490.3547650401</v>
+        <v>-334785.3586451216</v>
       </c>
       <c r="G6" t="n">
         <v>-503369.6242672859</v>
       </c>
       <c r="H6" t="n">
-        <v>-406109.9341717457</v>
+        <v>-406109.9341717456</v>
       </c>
       <c r="I6" t="n">
         <v>-406109.9341717457</v>
@@ -26558,7 +26558,7 @@
         <v>-410046.3537112796</v>
       </c>
       <c r="O6" t="n">
-        <v>-431988.3357940247</v>
+        <v>-431988.3357940246</v>
       </c>
       <c r="P6" t="n">
         <v>-410046.3537112796</v>
@@ -26701,10 +26701,10 @@
         <v>300.2059350711956</v>
       </c>
       <c r="H2" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="I2" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="J2" t="n">
         <v>149.0020902228565</v>
@@ -26768,16 +26768,16 @@
         <v>129.6775928968631</v>
       </c>
       <c r="M3" t="n">
-        <v>129.6775928968631</v>
+        <v>129.677592896863</v>
       </c>
       <c r="N3" t="n">
         <v>129.6775928968631</v>
       </c>
       <c r="O3" t="n">
-        <v>129.677592896863</v>
+        <v>129.6775928968631</v>
       </c>
       <c r="P3" t="n">
-        <v>129.677592896863</v>
+        <v>129.6775928968631</v>
       </c>
     </row>
     <row r="4">
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="F4" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="G4" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="H4" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="I4" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="J4" t="n">
-        <v>695.2124558429688</v>
+        <v>695.2124558429689</v>
       </c>
       <c r="K4" t="n">
-        <v>695.2124558429688</v>
+        <v>695.2124558429689</v>
       </c>
       <c r="L4" t="n">
-        <v>695.2124558429688</v>
+        <v>695.2124558429689</v>
       </c>
       <c r="M4" t="n">
         <v>496.5136161699169</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.42747760343127</v>
+        <v>27.42747760343119</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
         <v>121.5746126194253</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.4274776034313</v>
+        <v>27.42747760343119</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.42747760343127</v>
+        <v>27.42747760343119</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -28184,10 +28184,10 @@
         <v>137.0645880011306</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>62.40203505011239</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S12" t="n">
-        <v>89.40150785063007</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>178.6313224517703</v>
@@ -28232,7 +28232,7 @@
         <v>178.6313224517703</v>
       </c>
       <c r="X12" t="n">
-        <v>178.6313224517703</v>
+        <v>7.074145530425511</v>
       </c>
       <c r="Y12" t="n">
         <v>178.6313224517703</v>
@@ -28254,7 +28254,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>175.1727198518074</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -28269,7 +28269,7 @@
         <v>148.4181228403268</v>
       </c>
       <c r="J13" t="n">
-        <v>178.6313224517703</v>
+        <v>76.82634995341206</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28284,13 +28284,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>141.0608066055626</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>134.5753180367102</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R13" t="n">
         <v>166.7788770416304</v>
@@ -28406,10 +28406,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>47.51184692923727</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T15" t="n">
-        <v>178.6313224517703</v>
+        <v>0.3416087588242078</v>
       </c>
       <c r="U15" t="n">
-        <v>178.6313224517703</v>
+        <v>27.22419180515442</v>
       </c>
       <c r="V15" t="n">
         <v>178.6313224517703</v>
       </c>
       <c r="W15" t="n">
-        <v>178.6313224517703</v>
+        <v>157.9919726262577</v>
       </c>
       <c r="X15" t="n">
         <v>178.6313224517703</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.6313224517703</v>
+        <v>6.983856104252396</v>
       </c>
     </row>
     <row r="16">
@@ -28491,7 +28491,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>178.6313224517703</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -28506,7 +28506,7 @@
         <v>148.4181228403268</v>
       </c>
       <c r="J16" t="n">
-        <v>178.6313224517703</v>
+        <v>76.82634995341206</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28524,10 +28524,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>137.6022040055998</v>
       </c>
       <c r="Q16" t="n">
-        <v>134.5753180367102</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R16" t="n">
         <v>166.7788770416304</v>
@@ -28646,7 +28646,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -28655,13 +28655,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>109.5415757500918</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,25 +28688,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S18" t="n">
-        <v>154.1211556407908</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>199.0404484318762</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9230314782064</v>
+        <v>27.22419180515442</v>
       </c>
       <c r="V18" t="n">
-        <v>34.10174747637336</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>52.9961434878677</v>
+        <v>130.2952036521137</v>
       </c>
       <c r="X18" t="n">
-        <v>7.074145530425568</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R19" t="n">
         <v>166.7788770416304</v>
@@ -28773,10 +28773,10 @@
         <v>219.9413202405249</v>
       </c>
       <c r="T19" t="n">
-        <v>28.24759453127015</v>
+        <v>226.9464342043221</v>
       </c>
       <c r="U19" t="n">
-        <v>251.0760134741128</v>
+        <v>286.3062741834191</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -28785,10 +28785,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>27.01081571598519</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>116.7736659185205</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="C20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="D20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="E20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="F20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="G20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="H20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="I20" t="n">
         <v>190.3778176099785</v>
@@ -28858,16 +28858,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="W20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="X20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="Y20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
     </row>
     <row r="21">
@@ -28883,7 +28883,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -28898,7 +28898,7 @@
         <v>109.5415757500918</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.83975863332243</v>
+        <v>55.27088621393705</v>
       </c>
       <c r="S21" t="n">
-        <v>71.28139700746846</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3416087588242533</v>
+        <v>0.3416087588241965</v>
       </c>
       <c r="U21" t="n">
-        <v>27.22419180515449</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V21" t="n">
-        <v>34.10174747637336</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>7.074145530425511</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>6.983856104252396</v>
       </c>
     </row>
     <row r="22">
@@ -28959,7 +28959,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R22" t="n">
         <v>166.7788770416304</v>
       </c>
       <c r="S22" t="n">
-        <v>21.24248056747302</v>
+        <v>219.9413202405249</v>
       </c>
       <c r="T22" t="n">
         <v>226.9464342043221</v>
@@ -29019,13 +29019,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.2599923285926</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>183.3543926427885</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="C23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="D23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="E23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="F23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="G23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="H23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="I23" t="n">
         <v>190.3778176099785</v>
@@ -29095,16 +29095,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="W23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="X23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="Y23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
     </row>
     <row r="24">
@@ -29120,7 +29120,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S24" t="n">
-        <v>74.32800490485103</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3416087588242533</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U24" t="n">
         <v>225.9230314782064</v>
       </c>
       <c r="V24" t="n">
-        <v>34.10174747637336</v>
+        <v>205.2317147300399</v>
       </c>
       <c r="W24" t="n">
-        <v>52.9961434878677</v>
+        <v>52.99614348786764</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>7.074145530425511</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>6.983856104252396</v>
       </c>
     </row>
     <row r="25">
@@ -29196,7 +29196,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>65.43583366505355</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R25" t="n">
         <v>166.7788770416304</v>
@@ -29250,16 +29250,16 @@
         <v>226.9464342043221</v>
       </c>
       <c r="U25" t="n">
-        <v>87.60743451036717</v>
+        <v>286.3062741834191</v>
       </c>
       <c r="V25" t="n">
-        <v>216.9073826145217</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>27.01081571598519</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29308,7 +29308,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="N26" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228571</v>
       </c>
       <c r="O26" t="n">
         <v>149.0020902228565</v>
@@ -29360,19 +29360,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>14.17653688235768</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29402,25 +29402,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.7163708932374</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
     </row>
     <row r="28">
@@ -29442,7 +29442,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="G28" t="n">
         <v>149.0020902228565</v>
@@ -29451,31 +29451,31 @@
         <v>149.0020902228565</v>
       </c>
       <c r="I28" t="n">
-        <v>148.4181228403268</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="J28" t="n">
         <v>76.82634995341206</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>94.31666143768615</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>149.0020902228565</v>
-      </c>
-      <c r="O28" t="n">
-        <v>149.0020902228565</v>
-      </c>
-      <c r="P28" t="n">
-        <v>149.0020902228565</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>98.48167102013981</v>
       </c>
       <c r="R28" t="n">
         <v>149.0020902228565</v>
@@ -29548,7 +29548,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="O29" t="n">
-        <v>149.0020902228562</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="P29" t="n">
         <v>149.0020902228565</v>
@@ -29588,22 +29588,22 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
         <v>149.0020902228565</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>122.8459908420388</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H30" t="n">
         <v>109.5415757500918</v>
@@ -29639,16 +29639,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>134.7834930637648</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
         <v>149.0020902228565</v>
-      </c>
-      <c r="T30" t="n">
-        <v>149.0020902228565</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -29673,13 +29673,13 @@
         <v>149.0020902228565</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="G31" t="n">
         <v>149.0020902228565</v>
@@ -29697,19 +29697,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
+        <v>91.94588403928375</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>149.0020902228565</v>
       </c>
-      <c r="M31" t="n">
+      <c r="P31" t="n">
         <v>149.0020902228565</v>
-      </c>
-      <c r="N31" t="n">
-        <v>98.48167102013998</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>149.0020902228565</v>
@@ -29770,7 +29770,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="J32" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228567</v>
       </c>
       <c r="K32" t="n">
         <v>149.0020902228565</v>
@@ -29779,7 +29779,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="M32" t="n">
-        <v>149.0020902228559</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="N32" t="n">
         <v>149.0020902228565</v>
@@ -29825,10 +29825,10 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
         <v>149.0020902228565</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29873,22 +29873,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.83975863332243</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>51.94373443044223</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
+        <v>134.7834930637648</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
         <v>149.0020902228565</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29913,7 +29913,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="F34" t="n">
         <v>149.0020902228565</v>
@@ -29925,22 +29925,22 @@
         <v>149.0020902228565</v>
       </c>
       <c r="I34" t="n">
-        <v>149.0020902228565</v>
+        <v>148.4181228403268</v>
       </c>
       <c r="J34" t="n">
-        <v>149.0020902228565</v>
+        <v>76.82634995341206</v>
       </c>
       <c r="K34" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
         <v>149.0020902228565</v>
       </c>
-      <c r="M34" t="n">
-        <v>22.14092116824034</v>
-      </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>149.0020902228565</v>
+        <v>92.33250124392777</v>
       </c>
       <c r="R34" t="n">
         <v>149.0020902228565</v>
@@ -30004,11 +30004,11 @@
         <v>201.4325717917745</v>
       </c>
       <c r="I35" t="n">
+        <v>190.3778176099785</v>
+      </c>
+      <c r="J35" t="n">
         <v>201.4325717917745</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>185.8076198892766</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30025,16 +30025,16 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>136.0397791457473</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>201.4325717917745</v>
+        <v>167.0114975788364</v>
       </c>
       <c r="S35" t="n">
-        <v>201.4325717917745</v>
+        <v>197.1405594429799</v>
       </c>
       <c r="T35" t="n">
         <v>201.4325717917745</v>
@@ -30068,22 +30068,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>109.5415757500918</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>75.25092722332674</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>82.83975863332243</v>
       </c>
       <c r="S36" t="n">
-        <v>73.05553672481817</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>199.0404484318762</v>
@@ -30241,37 +30241,37 @@
         <v>201.4325717917745</v>
       </c>
       <c r="I38" t="n">
+        <v>190.3778176099785</v>
+      </c>
+      <c r="J38" t="n">
+        <v>34.26460399572137</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>201.4325717917745</v>
       </c>
-      <c r="J38" t="n">
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>201.4325717917745</v>
       </c>
-      <c r="K38" t="n">
-        <v>136.0397791457473</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
       <c r="R38" t="n">
-        <v>201.4325717917745</v>
+        <v>117.1219416806167</v>
       </c>
       <c r="S38" t="n">
-        <v>201.4325717917745</v>
+        <v>197.1405594429799</v>
       </c>
       <c r="T38" t="n">
         <v>201.4325717917745</v>
@@ -30302,25 +30302,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.5415757500918</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,19 +30350,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>166.0953102489027</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0404484318762</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>50.64197833713425</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.5570586236975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30426,7 +30426,7 @@
         <v>66.58072672426806</v>
       </c>
       <c r="R40" t="n">
-        <v>166.7788770416304</v>
+        <v>172.5039554833904</v>
       </c>
       <c r="S40" t="n">
         <v>201.4325717917745</v>
@@ -30478,37 +30478,37 @@
         <v>201.4325717917745</v>
       </c>
       <c r="I41" t="n">
+        <v>190.3778176099785</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>49.88955589821956</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>185.8076198892766</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>201.4325717917745</v>
       </c>
-      <c r="J41" t="n">
-        <v>201.4325717917745</v>
-      </c>
-      <c r="K41" t="n">
-        <v>136.0397791457476</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
       <c r="R41" t="n">
-        <v>201.4325717917745</v>
+        <v>117.1219416806167</v>
       </c>
       <c r="S41" t="n">
-        <v>201.4325717917745</v>
+        <v>197.1405594429799</v>
       </c>
       <c r="T41" t="n">
         <v>201.4325717917745</v>
@@ -30542,22 +30542,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>109.9871811513404</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>31.71740417875658</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T42" t="n">
         <v>199.0404484318762</v>
@@ -30621,7 +30621,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>154.3405514599724</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.58072672426808</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R43" t="n">
-        <v>172.5039554833906</v>
+        <v>166.7788770416304</v>
       </c>
       <c r="S43" t="n">
         <v>201.4325717917745</v>
@@ -30715,19 +30715,19 @@
         <v>201.4325717917745</v>
       </c>
       <c r="I44" t="n">
+        <v>190.3778176099785</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>201.4325717917745</v>
       </c>
-      <c r="J44" t="n">
-        <v>201.4325717917745</v>
-      </c>
-      <c r="K44" t="n">
-        <v>136.0397791457477</v>
-      </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>147.0945333275438</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30773,28 +30773,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>118.8094242949714</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,13 +30824,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0404484318762</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>88.5542092891715</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.557058623698</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -30876,7 +30876,7 @@
         <v>148.4181228403268</v>
       </c>
       <c r="J46" t="n">
-        <v>76.82634995341206</v>
+        <v>82.55142839517254</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.58072672426808</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R46" t="n">
         <v>166.7788770416304</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5213169563692984</v>
+        <v>0.5213169563692983</v>
       </c>
       <c r="H35" t="n">
         <v>5.338937279417078</v>
       </c>
       <c r="I35" t="n">
-        <v>20.0980719604274</v>
+        <v>20.09807196042739</v>
       </c>
       <c r="J35" t="n">
-        <v>44.24612502564878</v>
+        <v>44.24612502564877</v>
       </c>
       <c r="K35" t="n">
-        <v>66.31347178876119</v>
+        <v>66.31347178876118</v>
       </c>
       <c r="L35" t="n">
-        <v>82.26772559224813</v>
+        <v>82.26772559224811</v>
       </c>
       <c r="M35" t="n">
-        <v>91.53869601508063</v>
+        <v>91.53869601508062</v>
       </c>
       <c r="N35" t="n">
-        <v>93.01988781736492</v>
+        <v>93.01988781736489</v>
       </c>
       <c r="O35" t="n">
-        <v>87.8360423324677</v>
+        <v>87.83604233246767</v>
       </c>
       <c r="P35" t="n">
-        <v>74.96602997210063</v>
+        <v>74.96602997210061</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.29636647212511</v>
+        <v>56.2963664721251</v>
       </c>
       <c r="R35" t="n">
-        <v>32.74717626053297</v>
+        <v>32.74717626053296</v>
       </c>
       <c r="S35" t="n">
         <v>11.8795101432654</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2789291620800451</v>
+        <v>0.278929162080045</v>
       </c>
       <c r="H36" t="n">
         <v>2.693868486404646</v>
       </c>
       <c r="I36" t="n">
-        <v>9.603482115475238</v>
+        <v>9.603482115475236</v>
       </c>
       <c r="J36" t="n">
         <v>26.35268894897479</v>
       </c>
       <c r="K36" t="n">
-        <v>45.04094280833781</v>
+        <v>45.0409428083378</v>
       </c>
       <c r="L36" t="n">
-        <v>60.56310600338875</v>
+        <v>60.56310600338873</v>
       </c>
       <c r="M36" t="n">
-        <v>70.67428812879037</v>
+        <v>70.67428812879035</v>
       </c>
       <c r="N36" t="n">
-        <v>72.54482623765173</v>
+        <v>72.54482623765172</v>
       </c>
       <c r="O36" t="n">
-        <v>66.36434322524651</v>
+        <v>66.3643432252465</v>
       </c>
       <c r="P36" t="n">
-        <v>53.26323622210967</v>
+        <v>53.26323622210966</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.60506286481418</v>
+        <v>35.60506286481417</v>
       </c>
       <c r="R36" t="n">
         <v>17.3180755193207</v>
       </c>
       <c r="S36" t="n">
-        <v>5.180986848285045</v>
+        <v>5.180986848285044</v>
       </c>
       <c r="T36" t="n">
         <v>1.124280262945444</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01835060276842403</v>
+        <v>0.01835060276842402</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,31 +33807,31 @@
         <v>0.2338448396500809</v>
       </c>
       <c r="H37" t="n">
-        <v>2.079093210707085</v>
+        <v>2.079093210707084</v>
       </c>
       <c r="I37" t="n">
-        <v>7.032352086931527</v>
+        <v>7.032352086931525</v>
       </c>
       <c r="J37" t="n">
         <v>16.53283016326072</v>
       </c>
       <c r="K37" t="n">
-        <v>27.16851864298213</v>
+        <v>27.16851864298212</v>
       </c>
       <c r="L37" t="n">
-        <v>34.76635006943113</v>
+        <v>34.76635006943112</v>
       </c>
       <c r="M37" t="n">
-        <v>36.6562415462395</v>
+        <v>36.65624154623949</v>
       </c>
       <c r="N37" t="n">
-        <v>35.78463805299832</v>
+        <v>35.78463805299831</v>
       </c>
       <c r="O37" t="n">
-        <v>33.05290515344964</v>
+        <v>33.05290515344963</v>
       </c>
       <c r="P37" t="n">
-        <v>28.28247042458796</v>
+        <v>28.28247042458795</v>
       </c>
       <c r="Q37" t="n">
         <v>19.58131652742632</v>
@@ -33840,10 +33840,10 @@
         <v>10.51451433553909</v>
       </c>
       <c r="S37" t="n">
-        <v>4.075277796447318</v>
+        <v>4.075277796447317</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9991552239594365</v>
+        <v>0.9991552239594362</v>
       </c>
       <c r="U37" t="n">
         <v>0.01275517307182261</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5213169563692981</v>
+        <v>0.5213169563692984</v>
       </c>
       <c r="H41" t="n">
-        <v>5.338937279417075</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I41" t="n">
-        <v>20.09807196042738</v>
+        <v>20.0980719604274</v>
       </c>
       <c r="J41" t="n">
-        <v>44.24612502564875</v>
+        <v>44.24612502564878</v>
       </c>
       <c r="K41" t="n">
-        <v>66.31347178876115</v>
+        <v>66.31347178876119</v>
       </c>
       <c r="L41" t="n">
-        <v>82.26772559224807</v>
+        <v>82.26772559224813</v>
       </c>
       <c r="M41" t="n">
-        <v>91.53869601508057</v>
+        <v>91.53869601508063</v>
       </c>
       <c r="N41" t="n">
-        <v>93.01988781736485</v>
+        <v>93.01988781736492</v>
       </c>
       <c r="O41" t="n">
-        <v>87.83604233246764</v>
+        <v>87.8360423324677</v>
       </c>
       <c r="P41" t="n">
-        <v>74.96602997210059</v>
+        <v>74.96602997210063</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.29636647212507</v>
+        <v>56.29636647212511</v>
       </c>
       <c r="R41" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053297</v>
       </c>
       <c r="S41" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T41" t="n">
-        <v>2.282064976506603</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2789291620800449</v>
+        <v>0.2789291620800451</v>
       </c>
       <c r="H42" t="n">
-        <v>2.693868486404645</v>
+        <v>2.693868486404646</v>
       </c>
       <c r="I42" t="n">
-        <v>9.603482115475233</v>
+        <v>9.603482115475238</v>
       </c>
       <c r="J42" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K42" t="n">
-        <v>45.04094280833778</v>
+        <v>45.04094280833781</v>
       </c>
       <c r="L42" t="n">
-        <v>60.56310600338871</v>
+        <v>60.56310600338875</v>
       </c>
       <c r="M42" t="n">
-        <v>70.67428812879032</v>
+        <v>70.67428812879037</v>
       </c>
       <c r="N42" t="n">
-        <v>72.54482623765169</v>
+        <v>72.54482623765173</v>
       </c>
       <c r="O42" t="n">
-        <v>66.36434322524647</v>
+        <v>66.36434322524651</v>
       </c>
       <c r="P42" t="n">
-        <v>53.26323622210964</v>
+        <v>53.26323622210967</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.60506286481416</v>
+        <v>35.60506286481418</v>
       </c>
       <c r="R42" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S42" t="n">
-        <v>5.180986848285041</v>
+        <v>5.180986848285045</v>
       </c>
       <c r="T42" t="n">
         <v>1.124280262945444</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01835060276842402</v>
+        <v>0.01835060276842403</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H43" t="n">
-        <v>2.079093210707083</v>
+        <v>2.079093210707085</v>
       </c>
       <c r="I43" t="n">
-        <v>7.032352086931522</v>
+        <v>7.032352086931527</v>
       </c>
       <c r="J43" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K43" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298213</v>
       </c>
       <c r="L43" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943113</v>
       </c>
       <c r="M43" t="n">
-        <v>36.65624154623948</v>
+        <v>36.6562415462395</v>
       </c>
       <c r="N43" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299832</v>
       </c>
       <c r="O43" t="n">
-        <v>33.05290515344961</v>
+        <v>33.05290515344964</v>
       </c>
       <c r="P43" t="n">
-        <v>28.28247042458794</v>
+        <v>28.28247042458796</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R43" t="n">
-        <v>10.51451433553908</v>
+        <v>10.51451433553909</v>
       </c>
       <c r="S43" t="n">
-        <v>4.075277796447315</v>
+        <v>4.075277796447318</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9991552239594358</v>
+        <v>0.9991552239594365</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0127551730718226</v>
+        <v>0.01275517307182261</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5213169563692981</v>
+        <v>0.5213169563692984</v>
       </c>
       <c r="H44" t="n">
-        <v>5.338937279417075</v>
+        <v>5.338937279417078</v>
       </c>
       <c r="I44" t="n">
-        <v>20.09807196042738</v>
+        <v>20.0980719604274</v>
       </c>
       <c r="J44" t="n">
-        <v>44.24612502564875</v>
+        <v>44.24612502564878</v>
       </c>
       <c r="K44" t="n">
-        <v>66.31347178876115</v>
+        <v>66.31347178876119</v>
       </c>
       <c r="L44" t="n">
-        <v>82.26772559224807</v>
+        <v>82.26772559224813</v>
       </c>
       <c r="M44" t="n">
-        <v>91.53869601508057</v>
+        <v>91.53869601508063</v>
       </c>
       <c r="N44" t="n">
-        <v>93.01988781736485</v>
+        <v>93.01988781736492</v>
       </c>
       <c r="O44" t="n">
-        <v>87.83604233246764</v>
+        <v>87.8360423324677</v>
       </c>
       <c r="P44" t="n">
-        <v>74.96602997210059</v>
+        <v>74.96602997210063</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.29636647212507</v>
+        <v>56.29636647212511</v>
       </c>
       <c r="R44" t="n">
-        <v>32.74717626053295</v>
+        <v>32.74717626053297</v>
       </c>
       <c r="S44" t="n">
-        <v>11.87951014326539</v>
+        <v>11.8795101432654</v>
       </c>
       <c r="T44" t="n">
-        <v>2.282064976506603</v>
+        <v>2.282064976506605</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04170535650954384</v>
+        <v>0.04170535650954386</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2789291620800449</v>
+        <v>0.2789291620800451</v>
       </c>
       <c r="H45" t="n">
-        <v>2.693868486404645</v>
+        <v>2.693868486404646</v>
       </c>
       <c r="I45" t="n">
-        <v>9.603482115475233</v>
+        <v>9.603482115475238</v>
       </c>
       <c r="J45" t="n">
-        <v>26.35268894897478</v>
+        <v>26.35268894897479</v>
       </c>
       <c r="K45" t="n">
-        <v>45.04094280833778</v>
+        <v>45.04094280833781</v>
       </c>
       <c r="L45" t="n">
-        <v>60.56310600338871</v>
+        <v>60.56310600338875</v>
       </c>
       <c r="M45" t="n">
-        <v>70.67428812879032</v>
+        <v>70.67428812879037</v>
       </c>
       <c r="N45" t="n">
-        <v>72.54482623765169</v>
+        <v>72.54482623765173</v>
       </c>
       <c r="O45" t="n">
-        <v>66.36434322524647</v>
+        <v>66.36434322524651</v>
       </c>
       <c r="P45" t="n">
-        <v>53.26323622210964</v>
+        <v>53.26323622210967</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.60506286481416</v>
+        <v>35.60506286481418</v>
       </c>
       <c r="R45" t="n">
-        <v>17.31807551932069</v>
+        <v>17.3180755193207</v>
       </c>
       <c r="S45" t="n">
-        <v>5.180986848285041</v>
+        <v>5.180986848285045</v>
       </c>
       <c r="T45" t="n">
         <v>1.124280262945444</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01835060276842402</v>
+        <v>0.01835060276842403</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2338448396500808</v>
+        <v>0.2338448396500809</v>
       </c>
       <c r="H46" t="n">
-        <v>2.079093210707083</v>
+        <v>2.079093210707085</v>
       </c>
       <c r="I46" t="n">
-        <v>7.032352086931522</v>
+        <v>7.032352086931527</v>
       </c>
       <c r="J46" t="n">
-        <v>16.53283016326071</v>
+        <v>16.53283016326072</v>
       </c>
       <c r="K46" t="n">
-        <v>27.16851864298211</v>
+        <v>27.16851864298213</v>
       </c>
       <c r="L46" t="n">
-        <v>34.76635006943111</v>
+        <v>34.76635006943113</v>
       </c>
       <c r="M46" t="n">
-        <v>36.65624154623948</v>
+        <v>36.6562415462395</v>
       </c>
       <c r="N46" t="n">
-        <v>35.7846380529983</v>
+        <v>35.78463805299832</v>
       </c>
       <c r="O46" t="n">
-        <v>33.05290515344961</v>
+        <v>33.05290515344964</v>
       </c>
       <c r="P46" t="n">
-        <v>28.28247042458794</v>
+        <v>28.28247042458796</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.58131652742631</v>
+        <v>19.58131652742632</v>
       </c>
       <c r="R46" t="n">
-        <v>10.51451433553908</v>
+        <v>10.51451433553909</v>
       </c>
       <c r="S46" t="n">
-        <v>4.075277796447315</v>
+        <v>4.075277796447318</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9991552239594358</v>
+        <v>0.9991552239594365</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0127551730718226</v>
+        <v>0.01275517307182261</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K11" t="n">
         <v>170.3690333149454</v>
       </c>
       <c r="L11" t="n">
-        <v>198.6988396730519</v>
+        <v>140.397907156156</v>
       </c>
       <c r="M11" t="n">
-        <v>172.6947428271921</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="O11" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K12" t="n">
         <v>171.6647408465574</v>
@@ -35495,16 +35495,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="N12" t="n">
-        <v>112.0041260385187</v>
+        <v>86.3980284158019</v>
       </c>
       <c r="O12" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="Q12" t="n">
         <v>105.7005765146418</v>
@@ -35550,7 +35550,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>28.7387572052382</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>101.8049724983583</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>4.899026817099273</v>
@@ -35580,13 +35580,13 @@
         <v>79.91681043222691</v>
       </c>
       <c r="O13" t="n">
-        <v>57.63803306748931</v>
+        <v>198.698839673052</v>
       </c>
       <c r="P13" t="n">
         <v>25.56102968948145</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.99459131244215</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>170.3690333149454</v>
       </c>
       <c r="L14" t="n">
-        <v>173.565004440894</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="P14" t="n">
         <v>165.5317423883137</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.30566725758031</v>
+        <v>21.17183202542251</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K15" t="n">
-        <v>171.6647408465574</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="N15" t="n">
-        <v>198.6988396730519</v>
+        <v>165.064506103949</v>
       </c>
       <c r="O15" t="n">
-        <v>19.00586288010864</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35787,7 +35787,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>32.1973598052011</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>101.8049724983583</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>4.899026817099273</v>
@@ -35820,10 +35820,10 @@
         <v>57.63803306748931</v>
       </c>
       <c r="P16" t="n">
-        <v>25.56102968948145</v>
+        <v>163.1632336950812</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.99459131244215</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>32.29683567103626</v>
       </c>
       <c r="K17" t="n">
-        <v>170.3690333149454</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>198.6988396730519</v>
+        <v>158.3737680556297</v>
       </c>
       <c r="M17" t="n">
-        <v>21.17183202542245</v>
+        <v>198.698839673052</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="O17" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="P17" t="n">
-        <v>165.5317423883137</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K18" t="n">
-        <v>171.6647408465574</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>59.36392958930731</v>
       </c>
       <c r="N18" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>19.00586288010864</v>
+        <v>198.698839673052</v>
       </c>
       <c r="P18" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,19 +36124,19 @@
         <v>170.3690333149454</v>
       </c>
       <c r="L20" t="n">
-        <v>186.7035744137362</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>21.17183202542256</v>
       </c>
       <c r="O20" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>165.5317423883137</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>171.6647408465574</v>
       </c>
       <c r="L21" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="N21" t="n">
-        <v>198.6988396730519</v>
+        <v>86.3980284158019</v>
       </c>
       <c r="O21" t="n">
-        <v>192.0986049304435</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>145.2351980827876</v>
       </c>
       <c r="L23" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="M23" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>190.670603726666</v>
+        <v>198.698839673052</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>165.5317423883137</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>46.30566725758031</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>171.6647408465574</v>
       </c>
       <c r="L24" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>198.6988396730519</v>
+        <v>198.698839673052</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>198.698839673052</v>
       </c>
       <c r="O24" t="n">
-        <v>190.670603726666</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>198.6988396730519</v>
+        <v>86.3980284158019</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>181.2989258938928</v>
+        <v>181.2989258938927</v>
       </c>
       <c r="K26" t="n">
         <v>319.3711235378019</v>
@@ -36601,22 +36601,22 @@
         <v>413.1646153955678</v>
       </c>
       <c r="M26" t="n">
-        <v>459.7080865034969</v>
+        <v>459.7080865034968</v>
       </c>
       <c r="N26" t="n">
-        <v>449.9558388556147</v>
+        <v>449.9558388556152</v>
       </c>
       <c r="O26" t="n">
         <v>387.5401023963828</v>
       </c>
       <c r="P26" t="n">
-        <v>314.5338326111703</v>
+        <v>314.5338326111702</v>
       </c>
       <c r="Q26" t="n">
-        <v>195.3077574804369</v>
+        <v>195.3077574804367</v>
       </c>
       <c r="R26" t="n">
-        <v>31.88014854223982</v>
+        <v>31.88014854223974</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36738,7 +36738,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3.581042199925207</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.5839673825296954</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>4.899026817099273</v>
+        <v>153.9011170399557</v>
       </c>
       <c r="L28" t="n">
         <v>62.35637532974727</v>
       </c>
       <c r="M28" t="n">
-        <v>76.24011850808009</v>
+        <v>225.2422087309365</v>
       </c>
       <c r="N28" t="n">
-        <v>228.9189006550835</v>
+        <v>79.91681043222691</v>
       </c>
       <c r="O28" t="n">
-        <v>206.6401232903459</v>
+        <v>151.9546945051755</v>
       </c>
       <c r="P28" t="n">
-        <v>174.563119912338</v>
+        <v>25.56102968948145</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.90094429587175</v>
+        <v>82.42136349858839</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,16 +36844,16 @@
         <v>449.9558388556147</v>
       </c>
       <c r="O29" t="n">
-        <v>387.5401023963825</v>
+        <v>387.5401023963828</v>
       </c>
       <c r="P29" t="n">
-        <v>314.5338326111703</v>
+        <v>314.5338326111702</v>
       </c>
       <c r="Q29" t="n">
-        <v>195.3077574804369</v>
+        <v>195.3077574804368</v>
       </c>
       <c r="R29" t="n">
-        <v>31.88014854223982</v>
+        <v>31.88014854223979</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.3866172046441534</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2.568127576287338</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3.581042199925264</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36993,22 +36993,22 @@
         <v>4.899026817099273</v>
       </c>
       <c r="L31" t="n">
-        <v>211.3584655526038</v>
+        <v>154.302259369031</v>
       </c>
       <c r="M31" t="n">
-        <v>225.2422087309366</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N31" t="n">
-        <v>178.3984814523669</v>
+        <v>79.91681043222691</v>
       </c>
       <c r="O31" t="n">
-        <v>57.63803306748931</v>
+        <v>206.6401232903458</v>
       </c>
       <c r="P31" t="n">
-        <v>25.56102968948145</v>
+        <v>174.563119912338</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.42136349858848</v>
+        <v>82.42136349858845</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>181.2989258938928</v>
+        <v>181.298925893893</v>
       </c>
       <c r="K32" t="n">
         <v>319.3711235378019</v>
@@ -37075,7 +37075,7 @@
         <v>413.1646153955678</v>
       </c>
       <c r="M32" t="n">
-        <v>459.7080865034964</v>
+        <v>459.7080865034969</v>
       </c>
       <c r="N32" t="n">
         <v>449.9558388556147</v>
@@ -37084,13 +37084,13 @@
         <v>387.5401023963828</v>
       </c>
       <c r="P32" t="n">
-        <v>314.5338326111703</v>
+        <v>314.5338326111702</v>
       </c>
       <c r="Q32" t="n">
-        <v>195.3077574804369</v>
+        <v>195.3077574804368</v>
       </c>
       <c r="R32" t="n">
-        <v>31.88014854223982</v>
+        <v>31.88014854223979</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37209,10 +37209,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.568127576287338</v>
       </c>
       <c r="F34" t="n">
-        <v>3.581042199925292</v>
+        <v>3.581042199925264</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,22 +37221,22 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5839673825297806</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.17574026944447</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>153.9011170399558</v>
       </c>
       <c r="L34" t="n">
-        <v>211.3584655526038</v>
+        <v>62.35637532974727</v>
       </c>
       <c r="M34" t="n">
-        <v>98.38103967632043</v>
+        <v>225.2422087309366</v>
       </c>
       <c r="N34" t="n">
-        <v>79.91681043222691</v>
+        <v>228.9189006550834</v>
       </c>
       <c r="O34" t="n">
         <v>57.63803306748931</v>
@@ -37245,7 +37245,7 @@
         <v>25.56102968948145</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.42136349858848</v>
+        <v>25.75177451965971</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>11.05475418179599</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>32.29683567103626</v>
+        <v>233.7294074628108</v>
       </c>
       <c r="K35" t="n">
         <v>170.3690333149454</v>
@@ -37312,25 +37312,25 @@
         <v>264.1625251727113</v>
       </c>
       <c r="M35" t="n">
-        <v>310.7059962806404</v>
+        <v>496.5136161699169</v>
       </c>
       <c r="N35" t="n">
-        <v>300.9537486327582</v>
+        <v>300.9537486327581</v>
       </c>
       <c r="O35" t="n">
         <v>238.5380121735263</v>
       </c>
       <c r="P35" t="n">
-        <v>301.571521534061</v>
+        <v>165.5317423883137</v>
       </c>
       <c r="Q35" t="n">
-        <v>247.7382390493548</v>
+        <v>46.3056672575803</v>
       </c>
       <c r="R35" t="n">
-        <v>84.31063011115779</v>
+        <v>49.88955589821965</v>
       </c>
       <c r="S35" t="n">
-        <v>4.292012348794565</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>237.7515974477166</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.7005765146419</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37458,28 +37458,28 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>5.725078441760194</v>
+        <v>5.725078441760172</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>4.899026817099273</v>
+        <v>4.899026817099266</v>
       </c>
       <c r="L37" t="n">
-        <v>62.35637532974727</v>
+        <v>62.35637532974726</v>
       </c>
       <c r="M37" t="n">
         <v>76.24011850808009</v>
       </c>
       <c r="N37" t="n">
-        <v>79.91681043222691</v>
+        <v>79.9168104322269</v>
       </c>
       <c r="O37" t="n">
-        <v>57.63803306748931</v>
+        <v>57.6380330674893</v>
       </c>
       <c r="P37" t="n">
-        <v>25.56102968948145</v>
+        <v>25.56102968948144</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>11.05475418179599</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>233.7294074628108</v>
+        <v>66.56143966675764</v>
       </c>
       <c r="K38" t="n">
-        <v>306.4088124606927</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L38" t="n">
         <v>264.1625251727113</v>
@@ -37555,19 +37555,19 @@
         <v>300.9537486327582</v>
       </c>
       <c r="O38" t="n">
-        <v>238.5380121735263</v>
+        <v>439.9705839653008</v>
       </c>
       <c r="P38" t="n">
         <v>165.5317423883137</v>
       </c>
       <c r="Q38" t="n">
-        <v>46.30566725758031</v>
+        <v>247.7382390493548</v>
       </c>
       <c r="R38" t="n">
-        <v>84.31063011115779</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.292012348794565</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.725078441760194</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.72507844176</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,22 +37774,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11.05475418179601</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>233.7294074628108</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K41" t="n">
-        <v>306.408812460693</v>
+        <v>220.258589213165</v>
       </c>
       <c r="L41" t="n">
         <v>264.1625251727113</v>
       </c>
       <c r="M41" t="n">
-        <v>310.7059962806403</v>
+        <v>496.5136161699169</v>
       </c>
       <c r="N41" t="n">
-        <v>300.9537486327581</v>
+        <v>300.9537486327582</v>
       </c>
       <c r="O41" t="n">
         <v>238.5380121735263</v>
@@ -37798,13 +37798,13 @@
         <v>165.5317423883137</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.30566725758027</v>
+        <v>247.7382390493548</v>
       </c>
       <c r="R41" t="n">
-        <v>84.31063011115779</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>4.292012348794586</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>25.60609762271692</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K42" t="n">
         <v>171.6647408465574</v>
@@ -37871,13 +37871,13 @@
         <v>420.5454884978719</v>
       </c>
       <c r="O42" t="n">
-        <v>317.6304180575315</v>
+        <v>317.6304180575316</v>
       </c>
       <c r="P42" t="n">
         <v>237.7515974477166</v>
       </c>
       <c r="Q42" t="n">
-        <v>105.7005765146417</v>
+        <v>105.7005765146421</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>5.725078441760014</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37938,28 +37938,28 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4.899026817099255</v>
+        <v>4.899026817099273</v>
       </c>
       <c r="L43" t="n">
-        <v>62.35637532974724</v>
+        <v>62.35637532974727</v>
       </c>
       <c r="M43" t="n">
-        <v>76.24011850808006</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N43" t="n">
-        <v>79.9168104322269</v>
+        <v>79.91681043222691</v>
       </c>
       <c r="O43" t="n">
-        <v>57.63803306748929</v>
+        <v>57.63803306748931</v>
       </c>
       <c r="P43" t="n">
-        <v>25.56102968948143</v>
+        <v>25.56102968948145</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.72507844176023</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,22 +38011,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>11.05475418179595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>233.7294074628107</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K44" t="n">
-        <v>306.4088124606931</v>
+        <v>371.8016051067199</v>
       </c>
       <c r="L44" t="n">
         <v>264.1625251727113</v>
       </c>
       <c r="M44" t="n">
-        <v>310.7059962806403</v>
+        <v>457.8005296081842</v>
       </c>
       <c r="N44" t="n">
-        <v>300.9537486327581</v>
+        <v>300.9537486327582</v>
       </c>
       <c r="O44" t="n">
         <v>238.5380121735263</v>
@@ -38035,13 +38035,13 @@
         <v>165.5317423883137</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.30566725758027</v>
+        <v>46.30566725758031</v>
       </c>
       <c r="R44" t="n">
-        <v>84.31063011115774</v>
+        <v>84.31063011115776</v>
       </c>
       <c r="S44" t="n">
-        <v>4.292012348794529</v>
+        <v>4.292012348794536</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>25.60609762271744</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K45" t="n">
         <v>171.6647408465574</v>
       </c>
       <c r="L45" t="n">
-        <v>292.8490715269737</v>
+        <v>292.8490715269742</v>
       </c>
       <c r="M45" t="n">
         <v>394.2453179567719</v>
@@ -38108,13 +38108,13 @@
         <v>420.5454884978719</v>
       </c>
       <c r="O45" t="n">
-        <v>317.6304180575315</v>
+        <v>317.6304180575316</v>
       </c>
       <c r="P45" t="n">
         <v>237.7515974477166</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.7005765146417</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.725078441760689</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.725078441760473</v>
       </c>
       <c r="K46" t="n">
-        <v>4.899026817099255</v>
+        <v>4.899026817099273</v>
       </c>
       <c r="L46" t="n">
-        <v>62.35637532974724</v>
+        <v>62.35637532974727</v>
       </c>
       <c r="M46" t="n">
-        <v>76.24011850808006</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N46" t="n">
-        <v>79.9168104322269</v>
+        <v>79.91681043222691</v>
       </c>
       <c r="O46" t="n">
-        <v>57.63803306748929</v>
+        <v>57.63803306748931</v>
       </c>
       <c r="P46" t="n">
-        <v>25.56102968948143</v>
+        <v>25.56102968948145</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
